--- a/testing-diva/results/results.xlsx
+++ b/testing-diva/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi\Dropbox\_Schule\_zhaw\21FS\BA\testing-diva\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C51F8F6-54C9-4354-B181-215790789246}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3675602D-FD34-474A-9206-527A8F4927B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12960" yWindow="3250" windowWidth="26570" windowHeight="16510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="2860" windowWidth="26570" windowHeight="16510" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -632,42 +632,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -688,6 +652,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1700,7 +1700,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>No Ping</c:v>
+            <c:v>Kein Ping</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3038,7 +3038,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Signatures Count with X Peers Total</c:v>
+            <c:v>Anzahl Signaturen bei X Knoten total</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3716,7 +3716,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>9 Peers</c:v>
+            <c:v>9 Knoten</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3803,7 +3803,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>15 Peers</c:v>
+            <c:v>15 Knoten</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3904,7 +3904,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>21 Peers</c:v>
+            <c:v>21 Knoten</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4023,7 +4023,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>27 Peers</c:v>
+            <c:v>27 Knoten</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4160,7 +4160,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>33 Peers</c:v>
+            <c:v>33 Knoten</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5339,7 +5339,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Removed</c:v>
+            <c:v>entfernt</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -5422,7 +5422,7 @@
           <c:idx val="4"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Removed extrapolated</c:v>
+            <c:v>entfernt - extrapoliert</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5743,7 +5743,7 @@
           <c:idx val="3"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Not Removed</c:v>
+            <c:v>nicht entfernt</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5856,7 +5856,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Not Removed extrapolated</c:v>
+            <c:v>nicht entfernt - extrapoliert</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -7066,7 +7066,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Signatures Count with X Peers Total</c:v>
+            <c:v>Anzahl Signaturen bei X Knoten total</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -7486,7 +7486,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>9 Peers</c:v>
+            <c:v>9 Knoten</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -7549,7 +7549,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>15 Peers</c:v>
+            <c:v>15 Knoten</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -7608,7 +7608,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>21 Peers</c:v>
+            <c:v>21 Knoten</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -7679,7 +7679,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>27 Peers</c:v>
+            <c:v>27 Knoten</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -7744,7 +7744,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>33 Peers</c:v>
+            <c:v>33 Knoten</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -8839,7 +8839,7 @@
           <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>No Ping</c:v>
+            <c:v>kein Ping</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -8958,7 +8958,7 @@
           <c:idx val="5"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>No Ping extrapolated</c:v>
+            <c:v>kein Ping - extrapoliert</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -10515,7 +10515,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Signatures Count with X Peers Total</c:v>
+            <c:v>Anzahl Signaturen bei X Knoten total</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -11199,7 +11199,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>9 Peers</c:v>
+            <c:v>9 Konten</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -11286,7 +11286,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>15 Peers</c:v>
+            <c:v>15 Konten</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -11387,7 +11387,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>21 Peers</c:v>
+            <c:v>21 Konten</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -11506,7 +11506,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>27 Peers</c:v>
+            <c:v>27 Konten</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -11643,7 +11643,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>33 Peers</c:v>
+            <c:v>33 Konten</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -19317,15 +19317,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y64" sqref="Y64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.81640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="0.1796875" style="32" customWidth="1"/>
+    <col min="3" max="4" width="0.1796875" style="20" customWidth="1"/>
     <col min="5" max="5" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="86.54296875" style="1" bestFit="1" customWidth="1"/>
@@ -19337,29 +19337,29 @@
   <sheetData>
     <row r="1" spans="2:11" ht="7" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="I2" s="21" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="I2" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="I3" s="9" t="s">
         <v>124</v>
       </c>
@@ -19374,8 +19374,8 @@
       <c r="B4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
@@ -19399,11 +19399,11 @@
       <c r="B5" s="15">
         <v>9</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="22">
         <f>$B$5</f>
         <v>9</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="22">
         <f>B5/$B$5</f>
         <v>1</v>
       </c>
@@ -19433,11 +19433,11 @@
         <f>B5-1</f>
         <v>8</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="22">
         <f t="shared" ref="C6:C14" si="0">$B$5</f>
         <v>9</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="22">
         <f t="shared" ref="D6:D9" si="1">B6/$B$5</f>
         <v>0.88888888888888884</v>
       </c>
@@ -19467,11 +19467,11 @@
         <f t="shared" ref="B7:B12" si="4">B6-1</f>
         <v>7</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="22">
         <f t="shared" si="1"/>
         <v>0.77777777777777779</v>
       </c>
@@ -19501,11 +19501,11 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="22">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -19535,11 +19535,11 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="22">
         <f t="shared" si="1"/>
         <v>0.55555555555555558</v>
       </c>
@@ -19569,11 +19569,11 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="16">
         <v>60</v>
       </c>
@@ -19600,11 +19600,11 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="16">
         <v>60</v>
       </c>
@@ -19631,11 +19631,11 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="16">
         <v>60</v>
       </c>
@@ -19662,11 +19662,11 @@
         <f>B12-1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="16">
         <v>60</v>
       </c>
@@ -19693,11 +19693,11 @@
         <f>B13-1</f>
         <v>0</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="16">
         <v>60</v>
       </c>
@@ -19721,8 +19721,8 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="I15" s="10">
         <v>11</v>
       </c>
@@ -19736,14 +19736,14 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
       <c r="I16" s="10">
         <v>12</v>
       </c>
@@ -19760,8 +19760,8 @@
       <c r="B17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="8" t="s">
         <v>1</v>
       </c>
@@ -19787,11 +19787,11 @@
       <c r="B18" s="15">
         <v>15</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="22">
         <f>$B$18</f>
         <v>15</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="22">
         <f>B18/$B$18</f>
         <v>1</v>
       </c>
@@ -19821,11 +19821,11 @@
         <f>B18-1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="22">
         <f t="shared" ref="C19:C33" si="5">$B$18</f>
         <v>15</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="22">
         <f t="shared" ref="D19:D25" si="6">B19/$B$18</f>
         <v>0.93333333333333335</v>
       </c>
@@ -19855,11 +19855,11 @@
         <f t="shared" ref="B20:B25" si="7">B19-1</f>
         <v>13</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="22">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="22">
         <f t="shared" si="6"/>
         <v>0.8666666666666667</v>
       </c>
@@ -19889,11 +19889,11 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="22">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="22">
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
@@ -19923,11 +19923,11 @@
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="22">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="22">
         <f t="shared" si="6"/>
         <v>0.73333333333333328</v>
       </c>
@@ -19957,11 +19957,11 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="22">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="22">
         <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
@@ -19991,11 +19991,11 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="22">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="22">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
@@ -20025,11 +20025,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="22">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="22">
         <f t="shared" si="6"/>
         <v>0.53333333333333333</v>
       </c>
@@ -20059,11 +20059,11 @@
         <f>B25-1</f>
         <v>7</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="22">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="16">
         <v>60</v>
       </c>
@@ -20090,11 +20090,11 @@
         <f t="shared" ref="B27:B33" si="8">B26-1</f>
         <v>6</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="22">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="16">
         <v>60</v>
       </c>
@@ -20121,11 +20121,11 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="22">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="16">
         <v>60</v>
       </c>
@@ -20152,11 +20152,11 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="22">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="16">
         <v>60</v>
       </c>
@@ -20183,11 +20183,11 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="22">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D30" s="34"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="16">
         <v>60</v>
       </c>
@@ -20214,11 +20214,11 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="22">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D31" s="34"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="16">
         <v>60</v>
       </c>
@@ -20245,11 +20245,11 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="22">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D32" s="34"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="16">
         <v>60</v>
       </c>
@@ -20276,11 +20276,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="22">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D33" s="34"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="16">
         <v>60</v>
       </c>
@@ -20304,8 +20304,8 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
       <c r="I34" s="10">
         <v>30</v>
       </c>
@@ -20319,14 +20319,14 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
       <c r="I35" s="10">
         <v>31</v>
       </c>
@@ -20343,8 +20343,8 @@
       <c r="B36" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="8" t="s">
         <v>1</v>
       </c>
@@ -20370,11 +20370,11 @@
       <c r="B37" s="15">
         <v>21</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="22">
         <f>$B$37</f>
         <v>21</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="22">
         <f>B37/$B$37</f>
         <v>1</v>
       </c>
@@ -20404,11 +20404,11 @@
         <f>B37-1</f>
         <v>20</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="22">
         <f t="shared" ref="C38:C58" si="9">$B$37</f>
         <v>21</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="22">
         <f t="shared" ref="D38:D47" si="10">B38/$B$37</f>
         <v>0.95238095238095233</v>
       </c>
@@ -20438,11 +20438,11 @@
         <f t="shared" ref="B39:B44" si="13">B38-1</f>
         <v>19</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="22">
         <f t="shared" si="10"/>
         <v>0.90476190476190477</v>
       </c>
@@ -20472,11 +20472,11 @@
         <f t="shared" si="13"/>
         <v>18</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="22">
         <f t="shared" si="10"/>
         <v>0.8571428571428571</v>
       </c>
@@ -20495,11 +20495,11 @@
         <f t="shared" si="13"/>
         <v>17</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="22">
         <f t="shared" si="10"/>
         <v>0.80952380952380953</v>
       </c>
@@ -20518,11 +20518,11 @@
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="22">
         <f t="shared" si="10"/>
         <v>0.76190476190476186</v>
       </c>
@@ -20535,22 +20535,22 @@
       <c r="G42" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="21" t="s">
+      <c r="I42" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="23"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="31"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B43" s="15">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C43" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="22">
         <f t="shared" si="10"/>
         <v>0.7142857142857143</v>
       </c>
@@ -20578,11 +20578,11 @@
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D44" s="34">
+      <c r="D44" s="22">
         <f t="shared" si="10"/>
         <v>0.66666666666666663</v>
       </c>
@@ -20595,14 +20595,14 @@
       <c r="G44" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I44" s="30">
+      <c r="I44" s="18">
         <v>1</v>
       </c>
-      <c r="J44" s="30">
+      <c r="J44" s="18">
         <f>(FLOOR(I44*100/2,1) +1)/100</f>
         <v>0.51</v>
       </c>
-      <c r="K44" s="30">
+      <c r="K44" s="18">
         <f>(FLOOR(I44*100/3*2,1) +1)/100</f>
         <v>0.67</v>
       </c>
@@ -20612,11 +20612,11 @@
         <f>B44-1</f>
         <v>13</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="22">
         <f t="shared" si="10"/>
         <v>0.61904761904761907</v>
       </c>
@@ -20629,7 +20629,7 @@
       <c r="G45" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I45" s="31">
+      <c r="I45" s="19">
         <v>960</v>
       </c>
     </row>
@@ -20638,11 +20638,11 @@
         <f t="shared" ref="B46:B58" si="14">B45-1</f>
         <v>12</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D46" s="34">
+      <c r="D46" s="22">
         <f t="shared" si="10"/>
         <v>0.5714285714285714</v>
       </c>
@@ -20655,7 +20655,7 @@
       <c r="G46" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="31">
+      <c r="I46" s="19">
         <v>0</v>
       </c>
     </row>
@@ -20664,11 +20664,11 @@
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D47" s="22">
         <f t="shared" si="10"/>
         <v>0.52380952380952384</v>
       </c>
@@ -20687,11 +20687,11 @@
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="C48" s="34">
+      <c r="C48" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D48" s="34"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="16">
         <v>60</v>
       </c>
@@ -20707,11 +20707,11 @@
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="C49" s="34">
+      <c r="C49" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="22"/>
       <c r="E49" s="16">
         <v>60</v>
       </c>
@@ -20727,11 +20727,11 @@
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="C50" s="34">
+      <c r="C50" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D50" s="34"/>
+      <c r="D50" s="22"/>
       <c r="E50" s="16">
         <v>60</v>
       </c>
@@ -20747,11 +20747,11 @@
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="C51" s="34">
+      <c r="C51" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D51" s="34"/>
+      <c r="D51" s="22"/>
       <c r="E51" s="16">
         <v>60</v>
       </c>
@@ -20767,11 +20767,11 @@
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="C52" s="34">
+      <c r="C52" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D52" s="34"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="16">
         <v>60</v>
       </c>
@@ -20787,11 +20787,11 @@
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C53" s="34">
+      <c r="C53" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D53" s="34"/>
+      <c r="D53" s="22"/>
       <c r="E53" s="16">
         <v>60</v>
       </c>
@@ -20807,11 +20807,11 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="C54" s="34">
+      <c r="C54" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D54" s="34"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="16">
         <v>60</v>
       </c>
@@ -20827,11 +20827,11 @@
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="C55" s="34">
+      <c r="C55" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D55" s="34"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="16">
         <v>60</v>
       </c>
@@ -20847,11 +20847,11 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="C56" s="34">
+      <c r="C56" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D56" s="34"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="16">
         <v>60</v>
       </c>
@@ -20867,11 +20867,11 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="C57" s="34">
+      <c r="C57" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D57" s="34"/>
+      <c r="D57" s="22"/>
       <c r="E57" s="16">
         <v>60</v>
       </c>
@@ -20887,11 +20887,11 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="C58" s="34">
+      <c r="C58" s="22">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D58" s="34"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="16">
         <v>60</v>
       </c>
@@ -20903,21 +20903,21 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B61" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
       <c r="E61" s="8" t="s">
         <v>1</v>
       </c>
@@ -20932,11 +20932,11 @@
       <c r="B62" s="15">
         <v>27</v>
       </c>
-      <c r="C62" s="34">
+      <c r="C62" s="22">
         <f>$B$62</f>
         <v>27</v>
       </c>
-      <c r="D62" s="34">
+      <c r="D62" s="22">
         <f>B62/$B$62</f>
         <v>1</v>
       </c>
@@ -20955,11 +20955,11 @@
         <f>B62-1</f>
         <v>26</v>
       </c>
-      <c r="C63" s="34">
+      <c r="C63" s="22">
         <f t="shared" ref="C63:C89" si="15">$B$62</f>
         <v>27</v>
       </c>
-      <c r="D63" s="34">
+      <c r="D63" s="22">
         <f t="shared" ref="D63:D75" si="16">B63/27</f>
         <v>0.96296296296296291</v>
       </c>
@@ -20978,11 +20978,11 @@
         <f t="shared" ref="B64:B69" si="17">B63-1</f>
         <v>25</v>
       </c>
-      <c r="C64" s="34">
+      <c r="C64" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D64" s="34">
+      <c r="D64" s="22">
         <f t="shared" si="16"/>
         <v>0.92592592592592593</v>
       </c>
@@ -21001,11 +21001,11 @@
         <f t="shared" si="17"/>
         <v>24</v>
       </c>
-      <c r="C65" s="34">
+      <c r="C65" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D65" s="34">
+      <c r="D65" s="22">
         <f t="shared" si="16"/>
         <v>0.88888888888888884</v>
       </c>
@@ -21024,11 +21024,11 @@
         <f t="shared" si="17"/>
         <v>23</v>
       </c>
-      <c r="C66" s="34">
+      <c r="C66" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D66" s="34">
+      <c r="D66" s="22">
         <f t="shared" si="16"/>
         <v>0.85185185185185186</v>
       </c>
@@ -21047,11 +21047,11 @@
         <f t="shared" si="17"/>
         <v>22</v>
       </c>
-      <c r="C67" s="34">
+      <c r="C67" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D67" s="34">
+      <c r="D67" s="22">
         <f t="shared" si="16"/>
         <v>0.81481481481481477</v>
       </c>
@@ -21070,11 +21070,11 @@
         <f t="shared" si="17"/>
         <v>21</v>
       </c>
-      <c r="C68" s="34">
+      <c r="C68" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D68" s="34">
+      <c r="D68" s="22">
         <f t="shared" si="16"/>
         <v>0.77777777777777779</v>
       </c>
@@ -21093,11 +21093,11 @@
         <f t="shared" si="17"/>
         <v>20</v>
       </c>
-      <c r="C69" s="34">
+      <c r="C69" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D69" s="34">
+      <c r="D69" s="22">
         <f t="shared" si="16"/>
         <v>0.7407407407407407</v>
       </c>
@@ -21116,11 +21116,11 @@
         <f>B69-1</f>
         <v>19</v>
       </c>
-      <c r="C70" s="34">
+      <c r="C70" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D70" s="34">
+      <c r="D70" s="22">
         <f t="shared" si="16"/>
         <v>0.70370370370370372</v>
       </c>
@@ -21139,11 +21139,11 @@
         <f t="shared" ref="B71:B89" si="18">B70-1</f>
         <v>18</v>
       </c>
-      <c r="C71" s="34">
+      <c r="C71" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D71" s="34">
+      <c r="D71" s="22">
         <f t="shared" si="16"/>
         <v>0.66666666666666663</v>
       </c>
@@ -21162,11 +21162,11 @@
         <f t="shared" si="18"/>
         <v>17</v>
       </c>
-      <c r="C72" s="34">
+      <c r="C72" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D72" s="34">
+      <c r="D72" s="22">
         <f t="shared" si="16"/>
         <v>0.62962962962962965</v>
       </c>
@@ -21185,11 +21185,11 @@
         <f t="shared" si="18"/>
         <v>16</v>
       </c>
-      <c r="C73" s="34">
+      <c r="C73" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D73" s="34">
+      <c r="D73" s="22">
         <f t="shared" si="16"/>
         <v>0.59259259259259256</v>
       </c>
@@ -21208,11 +21208,11 @@
         <f t="shared" si="18"/>
         <v>15</v>
       </c>
-      <c r="C74" s="34">
+      <c r="C74" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D74" s="34">
+      <c r="D74" s="22">
         <f t="shared" si="16"/>
         <v>0.55555555555555558</v>
       </c>
@@ -21231,11 +21231,11 @@
         <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="C75" s="34">
+      <c r="C75" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D75" s="34">
+      <c r="D75" s="22">
         <f t="shared" si="16"/>
         <v>0.51851851851851849</v>
       </c>
@@ -21254,11 +21254,11 @@
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="C76" s="34">
+      <c r="C76" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D76" s="34"/>
+      <c r="D76" s="22"/>
       <c r="E76" s="16">
         <v>60</v>
       </c>
@@ -21274,11 +21274,11 @@
         <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="C77" s="34">
+      <c r="C77" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D77" s="34"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="16">
         <v>60</v>
       </c>
@@ -21294,11 +21294,11 @@
         <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="C78" s="34">
+      <c r="C78" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D78" s="34"/>
+      <c r="D78" s="22"/>
       <c r="E78" s="16">
         <v>60</v>
       </c>
@@ -21314,11 +21314,11 @@
         <f t="shared" si="18"/>
         <v>10</v>
       </c>
-      <c r="C79" s="34">
+      <c r="C79" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D79" s="34"/>
+      <c r="D79" s="22"/>
       <c r="E79" s="16">
         <v>60</v>
       </c>
@@ -21334,11 +21334,11 @@
         <f t="shared" si="18"/>
         <v>9</v>
       </c>
-      <c r="C80" s="34">
+      <c r="C80" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D80" s="34"/>
+      <c r="D80" s="22"/>
       <c r="E80" s="16">
         <v>60</v>
       </c>
@@ -21354,11 +21354,11 @@
         <f t="shared" si="18"/>
         <v>8</v>
       </c>
-      <c r="C81" s="34">
+      <c r="C81" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D81" s="34"/>
+      <c r="D81" s="22"/>
       <c r="E81" s="16">
         <v>60</v>
       </c>
@@ -21374,11 +21374,11 @@
         <f t="shared" si="18"/>
         <v>7</v>
       </c>
-      <c r="C82" s="34">
+      <c r="C82" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D82" s="34"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="16">
         <v>60</v>
       </c>
@@ -21394,11 +21394,11 @@
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="C83" s="34">
+      <c r="C83" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D83" s="34"/>
+      <c r="D83" s="22"/>
       <c r="E83" s="16">
         <v>60</v>
       </c>
@@ -21414,11 +21414,11 @@
         <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="C84" s="34">
+      <c r="C84" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D84" s="34"/>
+      <c r="D84" s="22"/>
       <c r="E84" s="16">
         <v>60</v>
       </c>
@@ -21434,11 +21434,11 @@
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="C85" s="34">
+      <c r="C85" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D85" s="34"/>
+      <c r="D85" s="22"/>
       <c r="E85" s="16">
         <v>60</v>
       </c>
@@ -21454,11 +21454,11 @@
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="C86" s="34">
+      <c r="C86" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D86" s="34"/>
+      <c r="D86" s="22"/>
       <c r="E86" s="16">
         <v>60</v>
       </c>
@@ -21474,11 +21474,11 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="C87" s="34">
+      <c r="C87" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D87" s="34"/>
+      <c r="D87" s="22"/>
       <c r="E87" s="16">
         <v>60</v>
       </c>
@@ -21494,11 +21494,11 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="C88" s="34">
+      <c r="C88" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D88" s="34"/>
+      <c r="D88" s="22"/>
       <c r="E88" s="16">
         <v>60</v>
       </c>
@@ -21514,11 +21514,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="C89" s="34">
+      <c r="C89" s="22">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="D89" s="34"/>
+      <c r="D89" s="22"/>
       <c r="E89" s="16">
         <v>60</v>
       </c>
@@ -21530,21 +21530,21 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B92" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
       <c r="E92" s="8" t="s">
         <v>1</v>
       </c>
@@ -21559,11 +21559,11 @@
       <c r="B93" s="15">
         <v>33</v>
       </c>
-      <c r="C93" s="34">
+      <c r="C93" s="22">
         <f>$B$93</f>
         <v>33</v>
       </c>
-      <c r="D93" s="34">
+      <c r="D93" s="22">
         <f>B93/$B$93</f>
         <v>1</v>
       </c>
@@ -21582,11 +21582,11 @@
         <f>B93-1</f>
         <v>32</v>
       </c>
-      <c r="C94" s="34">
+      <c r="C94" s="22">
         <f t="shared" ref="C94:C126" si="19">$B$93</f>
         <v>33</v>
       </c>
-      <c r="D94" s="34">
+      <c r="D94" s="22">
         <f t="shared" ref="D94:D109" si="20">B94/$B$93</f>
         <v>0.96969696969696972</v>
       </c>
@@ -21605,11 +21605,11 @@
         <f t="shared" ref="B95:B100" si="21">B94-1</f>
         <v>31</v>
       </c>
-      <c r="C95" s="34">
+      <c r="C95" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D95" s="34">
+      <c r="D95" s="22">
         <f t="shared" si="20"/>
         <v>0.93939393939393945</v>
       </c>
@@ -21628,11 +21628,11 @@
         <f t="shared" si="21"/>
         <v>30</v>
       </c>
-      <c r="C96" s="34">
+      <c r="C96" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D96" s="34">
+      <c r="D96" s="22">
         <f t="shared" si="20"/>
         <v>0.90909090909090906</v>
       </c>
@@ -21651,11 +21651,11 @@
         <f t="shared" si="21"/>
         <v>29</v>
       </c>
-      <c r="C97" s="34">
+      <c r="C97" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D97" s="34">
+      <c r="D97" s="22">
         <f t="shared" si="20"/>
         <v>0.87878787878787878</v>
       </c>
@@ -21674,11 +21674,11 @@
         <f t="shared" si="21"/>
         <v>28</v>
       </c>
-      <c r="C98" s="34">
+      <c r="C98" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D98" s="34">
+      <c r="D98" s="22">
         <f t="shared" si="20"/>
         <v>0.84848484848484851</v>
       </c>
@@ -21697,11 +21697,11 @@
         <f t="shared" si="21"/>
         <v>27</v>
       </c>
-      <c r="C99" s="34">
+      <c r="C99" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D99" s="34">
+      <c r="D99" s="22">
         <f t="shared" si="20"/>
         <v>0.81818181818181823</v>
       </c>
@@ -21720,11 +21720,11 @@
         <f t="shared" si="21"/>
         <v>26</v>
       </c>
-      <c r="C100" s="34">
+      <c r="C100" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D100" s="34">
+      <c r="D100" s="22">
         <f t="shared" si="20"/>
         <v>0.78787878787878785</v>
       </c>
@@ -21743,11 +21743,11 @@
         <f>B100-1</f>
         <v>25</v>
       </c>
-      <c r="C101" s="34">
+      <c r="C101" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D101" s="34">
+      <c r="D101" s="22">
         <f t="shared" si="20"/>
         <v>0.75757575757575757</v>
       </c>
@@ -21766,11 +21766,11 @@
         <f t="shared" ref="B102:B126" si="22">B101-1</f>
         <v>24</v>
       </c>
-      <c r="C102" s="34">
+      <c r="C102" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D102" s="34">
+      <c r="D102" s="22">
         <f t="shared" si="20"/>
         <v>0.72727272727272729</v>
       </c>
@@ -21789,11 +21789,11 @@
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="C103" s="34">
+      <c r="C103" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D103" s="34">
+      <c r="D103" s="22">
         <f t="shared" si="20"/>
         <v>0.69696969696969702</v>
       </c>
@@ -21812,11 +21812,11 @@
         <f t="shared" si="22"/>
         <v>22</v>
       </c>
-      <c r="C104" s="34">
+      <c r="C104" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D104" s="34">
+      <c r="D104" s="22">
         <f t="shared" si="20"/>
         <v>0.66666666666666663</v>
       </c>
@@ -21835,11 +21835,11 @@
         <f t="shared" si="22"/>
         <v>21</v>
       </c>
-      <c r="C105" s="34">
+      <c r="C105" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D105" s="34">
+      <c r="D105" s="22">
         <f t="shared" si="20"/>
         <v>0.63636363636363635</v>
       </c>
@@ -21858,11 +21858,11 @@
         <f t="shared" si="22"/>
         <v>20</v>
       </c>
-      <c r="C106" s="34">
+      <c r="C106" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D106" s="34">
+      <c r="D106" s="22">
         <f t="shared" si="20"/>
         <v>0.60606060606060608</v>
       </c>
@@ -21881,11 +21881,11 @@
         <f t="shared" si="22"/>
         <v>19</v>
       </c>
-      <c r="C107" s="34">
+      <c r="C107" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D107" s="34">
+      <c r="D107" s="22">
         <f t="shared" si="20"/>
         <v>0.5757575757575758</v>
       </c>
@@ -21904,11 +21904,11 @@
         <f t="shared" si="22"/>
         <v>18</v>
       </c>
-      <c r="C108" s="34">
+      <c r="C108" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D108" s="34">
+      <c r="D108" s="22">
         <f t="shared" si="20"/>
         <v>0.54545454545454541</v>
       </c>
@@ -21927,11 +21927,11 @@
         <f t="shared" si="22"/>
         <v>17</v>
       </c>
-      <c r="C109" s="34">
+      <c r="C109" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D109" s="34">
+      <c r="D109" s="22">
         <f t="shared" si="20"/>
         <v>0.51515151515151514</v>
       </c>
@@ -21950,11 +21950,11 @@
         <f t="shared" si="22"/>
         <v>16</v>
       </c>
-      <c r="C110" s="34">
+      <c r="C110" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D110" s="34"/>
+      <c r="D110" s="22"/>
       <c r="E110" s="16">
         <v>60</v>
       </c>
@@ -21970,11 +21970,11 @@
         <f t="shared" si="22"/>
         <v>15</v>
       </c>
-      <c r="C111" s="34">
+      <c r="C111" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D111" s="34"/>
+      <c r="D111" s="22"/>
       <c r="E111" s="16">
         <v>60</v>
       </c>
@@ -21990,11 +21990,11 @@
         <f t="shared" si="22"/>
         <v>14</v>
       </c>
-      <c r="C112" s="34">
+      <c r="C112" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D112" s="34"/>
+      <c r="D112" s="22"/>
       <c r="E112" s="16">
         <v>60</v>
       </c>
@@ -22010,11 +22010,11 @@
         <f t="shared" si="22"/>
         <v>13</v>
       </c>
-      <c r="C113" s="34">
+      <c r="C113" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D113" s="34"/>
+      <c r="D113" s="22"/>
       <c r="E113" s="16">
         <v>60</v>
       </c>
@@ -22030,11 +22030,11 @@
         <f t="shared" si="22"/>
         <v>12</v>
       </c>
-      <c r="C114" s="34">
+      <c r="C114" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D114" s="34"/>
+      <c r="D114" s="22"/>
       <c r="E114" s="16">
         <v>60</v>
       </c>
@@ -22050,11 +22050,11 @@
         <f t="shared" si="22"/>
         <v>11</v>
       </c>
-      <c r="C115" s="34">
+      <c r="C115" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D115" s="34"/>
+      <c r="D115" s="22"/>
       <c r="E115" s="16">
         <v>60</v>
       </c>
@@ -22070,11 +22070,11 @@
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
-      <c r="C116" s="34">
+      <c r="C116" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D116" s="34"/>
+      <c r="D116" s="22"/>
       <c r="E116" s="16">
         <v>60</v>
       </c>
@@ -22090,11 +22090,11 @@
         <f t="shared" si="22"/>
         <v>9</v>
       </c>
-      <c r="C117" s="34">
+      <c r="C117" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D117" s="34"/>
+      <c r="D117" s="22"/>
       <c r="E117" s="16">
         <v>60</v>
       </c>
@@ -22110,11 +22110,11 @@
         <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="C118" s="34">
+      <c r="C118" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D118" s="34"/>
+      <c r="D118" s="22"/>
       <c r="E118" s="16">
         <v>60</v>
       </c>
@@ -22130,11 +22130,11 @@
         <f t="shared" si="22"/>
         <v>7</v>
       </c>
-      <c r="C119" s="34">
+      <c r="C119" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D119" s="34"/>
+      <c r="D119" s="22"/>
       <c r="E119" s="16">
         <v>60</v>
       </c>
@@ -22150,11 +22150,11 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="C120" s="34">
+      <c r="C120" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D120" s="34"/>
+      <c r="D120" s="22"/>
       <c r="E120" s="16">
         <v>60</v>
       </c>
@@ -22170,11 +22170,11 @@
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="C121" s="34">
+      <c r="C121" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D121" s="34"/>
+      <c r="D121" s="22"/>
       <c r="E121" s="16">
         <v>60</v>
       </c>
@@ -22190,11 +22190,11 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="C122" s="34">
+      <c r="C122" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D122" s="34"/>
+      <c r="D122" s="22"/>
       <c r="E122" s="16">
         <v>60</v>
       </c>
@@ -22210,11 +22210,11 @@
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="C123" s="34">
+      <c r="C123" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D123" s="34"/>
+      <c r="D123" s="22"/>
       <c r="E123" s="16">
         <v>60</v>
       </c>
@@ -22230,11 +22230,11 @@
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="C124" s="34">
+      <c r="C124" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D124" s="34"/>
+      <c r="D124" s="22"/>
       <c r="E124" s="16">
         <v>60</v>
       </c>
@@ -22250,11 +22250,11 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="C125" s="34">
+      <c r="C125" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D125" s="34"/>
+      <c r="D125" s="22"/>
       <c r="E125" s="16">
         <v>60</v>
       </c>
@@ -22270,11 +22270,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="C126" s="34">
+      <c r="C126" s="22">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="D126" s="34"/>
+      <c r="D126" s="22"/>
       <c r="E126" s="16">
         <v>60</v>
       </c>
@@ -22305,15 +22305,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845EEAD4-736E-4CB3-9295-0285EE9C62F7}">
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.81640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="0.26953125" style="32" customWidth="1"/>
+    <col min="3" max="4" width="0.26953125" style="20" customWidth="1"/>
     <col min="5" max="5" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="76.26953125" style="1" bestFit="1" customWidth="1"/>
@@ -22326,31 +22326,31 @@
   <sheetData>
     <row r="1" spans="2:12" ht="7" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="J2" s="21" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="J2" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
       <c r="J3" s="9" t="s">
         <v>124</v>
       </c>
@@ -22365,8 +22365,8 @@
       <c r="B4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="8" t="s">
         <v>57</v>
       </c>
@@ -22393,10 +22393,10 @@
       <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="24">
         <v>9</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
@@ -22425,10 +22425,10 @@
       <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="24">
         <v>9</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="13" t="s">
         <v>13</v>
       </c>
@@ -22457,10 +22457,10 @@
       <c r="B7" s="12">
         <v>3</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="24">
         <v>9</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="13" t="s">
         <v>13</v>
       </c>
@@ -22489,10 +22489,10 @@
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="25">
         <v>9</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
@@ -22521,10 +22521,10 @@
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="25">
         <v>9</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="25">
         <f>B9/C9</f>
         <v>0.55555555555555558</v>
       </c>
@@ -22556,10 +22556,10 @@
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="26">
         <v>9</v>
       </c>
-      <c r="D10" s="38"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="11" t="s">
         <v>13</v>
       </c>
@@ -22588,10 +22588,10 @@
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="26">
         <v>9</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="11" t="s">
         <v>13</v>
       </c>
@@ -22620,10 +22620,10 @@
       <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="26">
         <v>9</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="11" t="s">
         <v>13</v>
       </c>
@@ -22652,10 +22652,10 @@
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="26">
         <v>9</v>
       </c>
-      <c r="D13" s="38"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
@@ -22694,15 +22694,15 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
       <c r="J15" s="10">
         <v>11</v>
       </c>
@@ -22719,8 +22719,8 @@
       <c r="B16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="8" t="s">
         <v>57</v>
       </c>
@@ -22749,10 +22749,10 @@
       <c r="B17" s="12">
         <v>1</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="24">
         <v>15</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="13" t="s">
         <v>13</v>
       </c>
@@ -22781,10 +22781,10 @@
       <c r="B18" s="12">
         <v>2</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="24">
         <v>15</v>
       </c>
-      <c r="D18" s="36"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="13" t="s">
         <v>13</v>
       </c>
@@ -22813,10 +22813,10 @@
       <c r="B19" s="12">
         <v>3</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="24">
         <v>15</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="13" t="s">
         <v>13</v>
       </c>
@@ -22845,10 +22845,10 @@
       <c r="B20" s="12">
         <v>4</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="24">
         <v>15</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="13" t="s">
         <v>13</v>
       </c>
@@ -22877,10 +22877,10 @@
       <c r="B21" s="12">
         <v>5</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="24">
         <v>15</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="13" t="s">
         <v>13</v>
       </c>
@@ -22909,10 +22909,10 @@
       <c r="B22" s="12">
         <v>6</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="24">
         <v>15</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="13" t="s">
         <v>13</v>
       </c>
@@ -22941,10 +22941,10 @@
       <c r="B23" s="3">
         <v>7</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="25">
         <v>15</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="5" t="s">
         <v>13</v>
       </c>
@@ -22973,10 +22973,10 @@
       <c r="B24" s="3">
         <v>8</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="25">
         <v>15</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="25">
         <f>B24/C24</f>
         <v>0.53333333333333333</v>
       </c>
@@ -23008,10 +23008,10 @@
       <c r="B25" s="2">
         <v>9</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="26">
         <v>15</v>
       </c>
-      <c r="D25" s="38"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="11" t="s">
         <v>13</v>
       </c>
@@ -23040,10 +23040,10 @@
       <c r="B26" s="2">
         <v>10</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="26">
         <v>15</v>
       </c>
-      <c r="D26" s="38"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="11" t="s">
         <v>13</v>
       </c>
@@ -23072,10 +23072,10 @@
       <c r="B27" s="2">
         <v>11</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="26">
         <v>15</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="11" t="s">
         <v>13</v>
       </c>
@@ -23104,10 +23104,10 @@
       <c r="B28" s="2">
         <v>12</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="26">
         <v>15</v>
       </c>
-      <c r="D28" s="38"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="11" t="s">
         <v>13</v>
       </c>
@@ -23136,10 +23136,10 @@
       <c r="B29" s="2">
         <v>13</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="26">
         <v>15</v>
       </c>
-      <c r="D29" s="38"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="11" t="s">
         <v>13</v>
       </c>
@@ -23168,10 +23168,10 @@
       <c r="B30" s="2">
         <v>14</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="26">
         <v>15</v>
       </c>
-      <c r="D30" s="38"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="11" t="s">
         <v>13</v>
       </c>
@@ -23200,10 +23200,10 @@
       <c r="B31" s="2">
         <v>15</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="26">
         <v>15</v>
       </c>
-      <c r="D31" s="38"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="11" t="s">
         <v>13</v>
       </c>
@@ -23242,15 +23242,15 @@
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
       <c r="J33" s="10">
         <v>29</v>
       </c>
@@ -23267,8 +23267,8 @@
       <c r="B34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="8" t="s">
         <v>57</v>
       </c>
@@ -23297,10 +23297,10 @@
       <c r="B35" s="12">
         <v>1</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="24">
         <v>21</v>
       </c>
-      <c r="D35" s="36"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="13" t="s">
         <v>13</v>
       </c>
@@ -23329,10 +23329,10 @@
       <c r="B36" s="12">
         <v>2</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="24">
         <v>21</v>
       </c>
-      <c r="D36" s="36"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="13" t="s">
         <v>13</v>
       </c>
@@ -23361,10 +23361,10 @@
       <c r="B37" s="12">
         <v>3</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="24">
         <v>21</v>
       </c>
-      <c r="D37" s="36"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="13" t="s">
         <v>13</v>
       </c>
@@ -23393,10 +23393,10 @@
       <c r="B38" s="12">
         <v>4</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="24">
         <v>21</v>
       </c>
-      <c r="D38" s="36"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="13" t="s">
         <v>13</v>
       </c>
@@ -23425,10 +23425,10 @@
       <c r="B39" s="12">
         <v>5</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="24">
         <v>21</v>
       </c>
-      <c r="D39" s="36"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="13" t="s">
         <v>13</v>
       </c>
@@ -23457,10 +23457,10 @@
       <c r="B40" s="12">
         <v>6</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="24">
         <v>21</v>
       </c>
-      <c r="D40" s="36"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="13" t="s">
         <v>13</v>
       </c>
@@ -23478,10 +23478,10 @@
       <c r="B41" s="12">
         <v>7</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="24">
         <v>21</v>
       </c>
-      <c r="D41" s="36"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="13" t="s">
         <v>13</v>
       </c>
@@ -23494,20 +23494,20 @@
       <c r="H41" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="28" t="s">
+      <c r="J41" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
     </row>
     <row r="42" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <v>8</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="24">
         <v>21</v>
       </c>
-      <c r="D42" s="36"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="13" t="s">
         <v>13</v>
       </c>
@@ -23520,18 +23520,18 @@
       <c r="H42" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
     </row>
     <row r="43" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
         <v>9</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="24">
         <v>21</v>
       </c>
-      <c r="D43" s="36"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="13" t="s">
         <v>13</v>
       </c>
@@ -23544,18 +23544,18 @@
       <c r="H43" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>10</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="25">
         <v>21</v>
       </c>
-      <c r="D44" s="37"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="5" t="s">
         <v>13</v>
       </c>
@@ -23573,10 +23573,10 @@
       <c r="B45" s="3">
         <v>11</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="25">
         <v>21</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="25">
         <f>B45/C45</f>
         <v>0.52380952380952384</v>
       </c>
@@ -23592,20 +23592,20 @@
       <c r="H45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J45" s="29" t="s">
+      <c r="J45" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>12</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="25">
         <v>21</v>
       </c>
-      <c r="D46" s="37">
+      <c r="D46" s="25">
         <f t="shared" ref="D46:D47" si="4">B46/C46</f>
         <v>0.5714285714285714</v>
       </c>
@@ -23621,18 +23621,18 @@
       <c r="H46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>13</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="25">
         <v>21</v>
       </c>
-      <c r="D47" s="37">
+      <c r="D47" s="25">
         <f t="shared" si="4"/>
         <v>0.61904761904761907</v>
       </c>
@@ -23648,18 +23648,18 @@
       <c r="H47" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B48" s="2">
         <v>14</v>
       </c>
-      <c r="C48" s="38">
+      <c r="C48" s="26">
         <v>21</v>
       </c>
-      <c r="D48" s="38"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="11" t="s">
         <v>13</v>
       </c>
@@ -23672,18 +23672,18 @@
       <c r="H48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" s="2">
         <v>15</v>
       </c>
-      <c r="C49" s="38">
+      <c r="C49" s="26">
         <v>21</v>
       </c>
-      <c r="D49" s="38"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="11" t="s">
         <v>13</v>
       </c>
@@ -23701,10 +23701,10 @@
       <c r="B50" s="2">
         <v>16</v>
       </c>
-      <c r="C50" s="38">
+      <c r="C50" s="26">
         <v>21</v>
       </c>
-      <c r="D50" s="38"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="11" t="s">
         <v>13</v>
       </c>
@@ -23722,10 +23722,10 @@
       <c r="B51" s="2">
         <v>17</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C51" s="26">
         <v>21</v>
       </c>
-      <c r="D51" s="38"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="11" t="s">
         <v>13</v>
       </c>
@@ -23743,10 +23743,10 @@
       <c r="B52" s="2">
         <v>18</v>
       </c>
-      <c r="C52" s="38">
+      <c r="C52" s="26">
         <v>21</v>
       </c>
-      <c r="D52" s="38"/>
+      <c r="D52" s="26"/>
       <c r="E52" s="11" t="s">
         <v>13</v>
       </c>
@@ -23764,10 +23764,10 @@
       <c r="B53" s="2">
         <v>19</v>
       </c>
-      <c r="C53" s="38">
+      <c r="C53" s="26">
         <v>21</v>
       </c>
-      <c r="D53" s="38"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="11" t="s">
         <v>13</v>
       </c>
@@ -23785,10 +23785,10 @@
       <c r="B54" s="2">
         <v>20</v>
       </c>
-      <c r="C54" s="38">
+      <c r="C54" s="26">
         <v>21</v>
       </c>
-      <c r="D54" s="38"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="11" t="s">
         <v>13</v>
       </c>
@@ -23806,10 +23806,10 @@
       <c r="B55" s="2">
         <v>21</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="26">
         <v>21</v>
       </c>
-      <c r="D55" s="38"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="11" t="s">
         <v>13</v>
       </c>
@@ -23824,22 +23824,22 @@
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="27"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
       <c r="E58" s="8" t="s">
         <v>57</v>
       </c>
@@ -23857,10 +23857,10 @@
       <c r="B59" s="12">
         <v>1</v>
       </c>
-      <c r="C59" s="36">
+      <c r="C59" s="24">
         <v>27</v>
       </c>
-      <c r="D59" s="36"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="13" t="s">
         <v>13</v>
       </c>
@@ -23878,10 +23878,10 @@
       <c r="B60" s="12">
         <v>2</v>
       </c>
-      <c r="C60" s="36">
+      <c r="C60" s="24">
         <v>27</v>
       </c>
-      <c r="D60" s="36"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="13" t="s">
         <v>13</v>
       </c>
@@ -23899,10 +23899,10 @@
       <c r="B61" s="12">
         <v>3</v>
       </c>
-      <c r="C61" s="36">
+      <c r="C61" s="24">
         <v>27</v>
       </c>
-      <c r="D61" s="36"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="13" t="s">
         <v>13</v>
       </c>
@@ -23920,10 +23920,10 @@
       <c r="B62" s="12">
         <v>4</v>
       </c>
-      <c r="C62" s="36">
+      <c r="C62" s="24">
         <v>27</v>
       </c>
-      <c r="D62" s="36"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="13" t="s">
         <v>13</v>
       </c>
@@ -23941,10 +23941,10 @@
       <c r="B63" s="12">
         <v>5</v>
       </c>
-      <c r="C63" s="36">
+      <c r="C63" s="24">
         <v>27</v>
       </c>
-      <c r="D63" s="36"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="13" t="s">
         <v>13</v>
       </c>
@@ -23962,10 +23962,10 @@
       <c r="B64" s="12">
         <v>6</v>
       </c>
-      <c r="C64" s="36">
+      <c r="C64" s="24">
         <v>27</v>
       </c>
-      <c r="D64" s="36"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="13" t="s">
         <v>13</v>
       </c>
@@ -23983,10 +23983,10 @@
       <c r="B65" s="12">
         <v>7</v>
       </c>
-      <c r="C65" s="36">
+      <c r="C65" s="24">
         <v>27</v>
       </c>
-      <c r="D65" s="36"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="13" t="s">
         <v>13</v>
       </c>
@@ -24004,10 +24004,10 @@
       <c r="B66" s="12">
         <v>8</v>
       </c>
-      <c r="C66" s="36">
+      <c r="C66" s="24">
         <v>27</v>
       </c>
-      <c r="D66" s="36"/>
+      <c r="D66" s="24"/>
       <c r="E66" s="13" t="s">
         <v>13</v>
       </c>
@@ -24025,10 +24025,10 @@
       <c r="B67" s="12">
         <v>9</v>
       </c>
-      <c r="C67" s="36">
+      <c r="C67" s="24">
         <v>27</v>
       </c>
-      <c r="D67" s="36"/>
+      <c r="D67" s="24"/>
       <c r="E67" s="13" t="s">
         <v>13</v>
       </c>
@@ -24046,10 +24046,10 @@
       <c r="B68" s="12">
         <v>10</v>
       </c>
-      <c r="C68" s="36">
+      <c r="C68" s="24">
         <v>27</v>
       </c>
-      <c r="D68" s="36"/>
+      <c r="D68" s="24"/>
       <c r="E68" s="13" t="s">
         <v>13</v>
       </c>
@@ -24067,10 +24067,10 @@
       <c r="B69" s="12">
         <v>11</v>
       </c>
-      <c r="C69" s="36">
+      <c r="C69" s="24">
         <v>27</v>
       </c>
-      <c r="D69" s="36"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="13" t="s">
         <v>13</v>
       </c>
@@ -24088,10 +24088,10 @@
       <c r="B70" s="12">
         <v>12</v>
       </c>
-      <c r="C70" s="36">
+      <c r="C70" s="24">
         <v>27</v>
       </c>
-      <c r="D70" s="36"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="13" t="s">
         <v>13</v>
       </c>
@@ -24109,10 +24109,10 @@
       <c r="B71" s="3">
         <v>13</v>
       </c>
-      <c r="C71" s="37">
+      <c r="C71" s="25">
         <v>27</v>
       </c>
-      <c r="D71" s="37"/>
+      <c r="D71" s="25"/>
       <c r="E71" s="5" t="s">
         <v>13</v>
       </c>
@@ -24130,10 +24130,10 @@
       <c r="B72" s="3">
         <v>14</v>
       </c>
-      <c r="C72" s="37">
+      <c r="C72" s="25">
         <v>27</v>
       </c>
-      <c r="D72" s="37">
+      <c r="D72" s="25">
         <f>B72/C72</f>
         <v>0.51851851851851849</v>
       </c>
@@ -24154,10 +24154,10 @@
       <c r="B73" s="3">
         <v>15</v>
       </c>
-      <c r="C73" s="37">
+      <c r="C73" s="25">
         <v>27</v>
       </c>
-      <c r="D73" s="37">
+      <c r="D73" s="25">
         <f>B73/C73</f>
         <v>0.55555555555555558</v>
       </c>
@@ -24178,10 +24178,10 @@
       <c r="B74" s="2">
         <v>16</v>
       </c>
-      <c r="C74" s="38">
+      <c r="C74" s="26">
         <v>27</v>
       </c>
-      <c r="D74" s="38"/>
+      <c r="D74" s="26"/>
       <c r="E74" s="11" t="s">
         <v>13</v>
       </c>
@@ -24199,10 +24199,10 @@
       <c r="B75" s="2">
         <v>17</v>
       </c>
-      <c r="C75" s="38">
+      <c r="C75" s="26">
         <v>27</v>
       </c>
-      <c r="D75" s="38"/>
+      <c r="D75" s="26"/>
       <c r="E75" s="11" t="s">
         <v>13</v>
       </c>
@@ -24220,10 +24220,10 @@
       <c r="B76" s="2">
         <v>18</v>
       </c>
-      <c r="C76" s="38">
+      <c r="C76" s="26">
         <v>27</v>
       </c>
-      <c r="D76" s="38"/>
+      <c r="D76" s="26"/>
       <c r="E76" s="11" t="s">
         <v>13</v>
       </c>
@@ -24241,10 +24241,10 @@
       <c r="B77" s="2">
         <v>19</v>
       </c>
-      <c r="C77" s="38">
+      <c r="C77" s="26">
         <v>27</v>
       </c>
-      <c r="D77" s="38"/>
+      <c r="D77" s="26"/>
       <c r="E77" s="11" t="s">
         <v>13</v>
       </c>
@@ -24262,10 +24262,10 @@
       <c r="B78" s="2">
         <v>20</v>
       </c>
-      <c r="C78" s="38">
+      <c r="C78" s="26">
         <v>27</v>
       </c>
-      <c r="D78" s="38"/>
+      <c r="D78" s="26"/>
       <c r="E78" s="11" t="s">
         <v>13</v>
       </c>
@@ -24283,10 +24283,10 @@
       <c r="B79" s="2">
         <v>21</v>
       </c>
-      <c r="C79" s="38">
+      <c r="C79" s="26">
         <v>27</v>
       </c>
-      <c r="D79" s="38"/>
+      <c r="D79" s="26"/>
       <c r="E79" s="11" t="s">
         <v>13</v>
       </c>
@@ -24304,10 +24304,10 @@
       <c r="B80" s="2">
         <v>22</v>
       </c>
-      <c r="C80" s="38">
+      <c r="C80" s="26">
         <v>27</v>
       </c>
-      <c r="D80" s="38"/>
+      <c r="D80" s="26"/>
       <c r="E80" s="11" t="s">
         <v>13</v>
       </c>
@@ -24325,10 +24325,10 @@
       <c r="B81" s="2">
         <v>23</v>
       </c>
-      <c r="C81" s="38">
+      <c r="C81" s="26">
         <v>27</v>
       </c>
-      <c r="D81" s="38"/>
+      <c r="D81" s="26"/>
       <c r="E81" s="11" t="s">
         <v>13</v>
       </c>
@@ -24346,10 +24346,10 @@
       <c r="B82" s="2">
         <v>24</v>
       </c>
-      <c r="C82" s="38">
+      <c r="C82" s="26">
         <v>27</v>
       </c>
-      <c r="D82" s="38"/>
+      <c r="D82" s="26"/>
       <c r="E82" s="11" t="s">
         <v>13</v>
       </c>
@@ -24367,10 +24367,10 @@
       <c r="B83" s="2">
         <v>25</v>
       </c>
-      <c r="C83" s="38">
+      <c r="C83" s="26">
         <v>27</v>
       </c>
-      <c r="D83" s="38"/>
+      <c r="D83" s="26"/>
       <c r="E83" s="11" t="s">
         <v>13</v>
       </c>
@@ -24388,10 +24388,10 @@
       <c r="B84" s="2">
         <v>26</v>
       </c>
-      <c r="C84" s="38">
+      <c r="C84" s="26">
         <v>27</v>
       </c>
-      <c r="D84" s="38"/>
+      <c r="D84" s="26"/>
       <c r="E84" s="11" t="s">
         <v>13</v>
       </c>
@@ -24409,10 +24409,10 @@
       <c r="B85" s="2">
         <v>27</v>
       </c>
-      <c r="C85" s="38">
+      <c r="C85" s="26">
         <v>27</v>
       </c>
-      <c r="D85" s="38"/>
+      <c r="D85" s="26"/>
       <c r="E85" s="11" t="s">
         <v>13</v>
       </c>
@@ -24428,26 +24428,26 @@
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B86" s="6"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="27"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="37"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B88" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
       <c r="E88" s="8" t="s">
         <v>57</v>
       </c>
@@ -24465,10 +24465,10 @@
       <c r="B89" s="12">
         <v>1</v>
       </c>
-      <c r="C89" s="36">
+      <c r="C89" s="24">
         <v>33</v>
       </c>
-      <c r="D89" s="36"/>
+      <c r="D89" s="24"/>
       <c r="E89" s="13" t="s">
         <v>13</v>
       </c>
@@ -24486,10 +24486,10 @@
       <c r="B90" s="12">
         <v>2</v>
       </c>
-      <c r="C90" s="36">
+      <c r="C90" s="24">
         <v>33</v>
       </c>
-      <c r="D90" s="36"/>
+      <c r="D90" s="24"/>
       <c r="E90" s="13" t="s">
         <v>13</v>
       </c>
@@ -24507,10 +24507,10 @@
       <c r="B91" s="12">
         <v>3</v>
       </c>
-      <c r="C91" s="36">
+      <c r="C91" s="24">
         <v>33</v>
       </c>
-      <c r="D91" s="36"/>
+      <c r="D91" s="24"/>
       <c r="E91" s="13" t="s">
         <v>13</v>
       </c>
@@ -24528,10 +24528,10 @@
       <c r="B92" s="12">
         <v>4</v>
       </c>
-      <c r="C92" s="36">
+      <c r="C92" s="24">
         <v>33</v>
       </c>
-      <c r="D92" s="36"/>
+      <c r="D92" s="24"/>
       <c r="E92" s="13" t="s">
         <v>13</v>
       </c>
@@ -24549,10 +24549,10 @@
       <c r="B93" s="12">
         <v>5</v>
       </c>
-      <c r="C93" s="36">
+      <c r="C93" s="24">
         <v>33</v>
       </c>
-      <c r="D93" s="36"/>
+      <c r="D93" s="24"/>
       <c r="E93" s="13" t="s">
         <v>13</v>
       </c>
@@ -24570,10 +24570,10 @@
       <c r="B94" s="12">
         <v>6</v>
       </c>
-      <c r="C94" s="36">
+      <c r="C94" s="24">
         <v>33</v>
       </c>
-      <c r="D94" s="36"/>
+      <c r="D94" s="24"/>
       <c r="E94" s="13" t="s">
         <v>13</v>
       </c>
@@ -24591,10 +24591,10 @@
       <c r="B95" s="12">
         <v>7</v>
       </c>
-      <c r="C95" s="36">
+      <c r="C95" s="24">
         <v>33</v>
       </c>
-      <c r="D95" s="36"/>
+      <c r="D95" s="24"/>
       <c r="E95" s="13" t="s">
         <v>13</v>
       </c>
@@ -24612,10 +24612,10 @@
       <c r="B96" s="12">
         <v>8</v>
       </c>
-      <c r="C96" s="36">
+      <c r="C96" s="24">
         <v>33</v>
       </c>
-      <c r="D96" s="36"/>
+      <c r="D96" s="24"/>
       <c r="E96" s="13" t="s">
         <v>13</v>
       </c>
@@ -24633,10 +24633,10 @@
       <c r="B97" s="12">
         <v>9</v>
       </c>
-      <c r="C97" s="36">
+      <c r="C97" s="24">
         <v>33</v>
       </c>
-      <c r="D97" s="36"/>
+      <c r="D97" s="24"/>
       <c r="E97" s="13" t="s">
         <v>13</v>
       </c>
@@ -24654,10 +24654,10 @@
       <c r="B98" s="12">
         <v>10</v>
       </c>
-      <c r="C98" s="36">
+      <c r="C98" s="24">
         <v>33</v>
       </c>
-      <c r="D98" s="36"/>
+      <c r="D98" s="24"/>
       <c r="E98" s="13" t="s">
         <v>13</v>
       </c>
@@ -24675,10 +24675,10 @@
       <c r="B99" s="12">
         <v>11</v>
       </c>
-      <c r="C99" s="36">
+      <c r="C99" s="24">
         <v>33</v>
       </c>
-      <c r="D99" s="36"/>
+      <c r="D99" s="24"/>
       <c r="E99" s="13" t="s">
         <v>13</v>
       </c>
@@ -24696,10 +24696,10 @@
       <c r="B100" s="12">
         <v>12</v>
       </c>
-      <c r="C100" s="36">
+      <c r="C100" s="24">
         <v>33</v>
       </c>
-      <c r="D100" s="36"/>
+      <c r="D100" s="24"/>
       <c r="E100" s="13" t="s">
         <v>13</v>
       </c>
@@ -24717,10 +24717,10 @@
       <c r="B101" s="12">
         <v>13</v>
       </c>
-      <c r="C101" s="36">
+      <c r="C101" s="24">
         <v>33</v>
       </c>
-      <c r="D101" s="36"/>
+      <c r="D101" s="24"/>
       <c r="E101" s="13" t="s">
         <v>13</v>
       </c>
@@ -24738,10 +24738,10 @@
       <c r="B102" s="12">
         <v>14</v>
       </c>
-      <c r="C102" s="36">
+      <c r="C102" s="24">
         <v>33</v>
       </c>
-      <c r="D102" s="36"/>
+      <c r="D102" s="24"/>
       <c r="E102" s="13" t="s">
         <v>13</v>
       </c>
@@ -24759,10 +24759,10 @@
       <c r="B103" s="12">
         <v>15</v>
       </c>
-      <c r="C103" s="36">
+      <c r="C103" s="24">
         <v>33</v>
       </c>
-      <c r="D103" s="36"/>
+      <c r="D103" s="24"/>
       <c r="E103" s="13" t="s">
         <v>13</v>
       </c>
@@ -24780,10 +24780,10 @@
       <c r="B104" s="3">
         <v>16</v>
       </c>
-      <c r="C104" s="37">
+      <c r="C104" s="25">
         <v>33</v>
       </c>
-      <c r="D104" s="37"/>
+      <c r="D104" s="25"/>
       <c r="E104" s="5" t="s">
         <v>13</v>
       </c>
@@ -24801,10 +24801,10 @@
       <c r="B105" s="3">
         <v>17</v>
       </c>
-      <c r="C105" s="37">
+      <c r="C105" s="25">
         <v>33</v>
       </c>
-      <c r="D105" s="37">
+      <c r="D105" s="25">
         <f>B105/C105</f>
         <v>0.51515151515151514</v>
       </c>
@@ -24825,10 +24825,10 @@
       <c r="B106" s="3">
         <v>18</v>
       </c>
-      <c r="C106" s="37">
+      <c r="C106" s="25">
         <v>33</v>
       </c>
-      <c r="D106" s="37">
+      <c r="D106" s="25">
         <f t="shared" ref="D106:D107" si="5">B106/C106</f>
         <v>0.54545454545454541</v>
       </c>
@@ -24849,10 +24849,10 @@
       <c r="B107" s="3">
         <v>19</v>
       </c>
-      <c r="C107" s="37">
+      <c r="C107" s="25">
         <v>33</v>
       </c>
-      <c r="D107" s="37">
+      <c r="D107" s="25">
         <f t="shared" si="5"/>
         <v>0.5757575757575758</v>
       </c>
@@ -24873,10 +24873,10 @@
       <c r="B108" s="2">
         <v>20</v>
       </c>
-      <c r="C108" s="38">
+      <c r="C108" s="26">
         <v>33</v>
       </c>
-      <c r="D108" s="38"/>
+      <c r="D108" s="26"/>
       <c r="E108" s="11" t="s">
         <v>13</v>
       </c>
@@ -24894,10 +24894,10 @@
       <c r="B109" s="2">
         <v>21</v>
       </c>
-      <c r="C109" s="38">
+      <c r="C109" s="26">
         <v>33</v>
       </c>
-      <c r="D109" s="38"/>
+      <c r="D109" s="26"/>
       <c r="E109" s="11" t="s">
         <v>13</v>
       </c>
@@ -24915,10 +24915,10 @@
       <c r="B110" s="2">
         <v>22</v>
       </c>
-      <c r="C110" s="38">
+      <c r="C110" s="26">
         <v>33</v>
       </c>
-      <c r="D110" s="38"/>
+      <c r="D110" s="26"/>
       <c r="E110" s="11" t="s">
         <v>13</v>
       </c>
@@ -24936,10 +24936,10 @@
       <c r="B111" s="2">
         <v>23</v>
       </c>
-      <c r="C111" s="38">
+      <c r="C111" s="26">
         <v>33</v>
       </c>
-      <c r="D111" s="38"/>
+      <c r="D111" s="26"/>
       <c r="E111" s="11" t="s">
         <v>13</v>
       </c>
@@ -24957,10 +24957,10 @@
       <c r="B112" s="2">
         <v>24</v>
       </c>
-      <c r="C112" s="38">
+      <c r="C112" s="26">
         <v>33</v>
       </c>
-      <c r="D112" s="38"/>
+      <c r="D112" s="26"/>
       <c r="E112" s="11" t="s">
         <v>13</v>
       </c>
@@ -24978,10 +24978,10 @@
       <c r="B113" s="2">
         <v>25</v>
       </c>
-      <c r="C113" s="38">
+      <c r="C113" s="26">
         <v>33</v>
       </c>
-      <c r="D113" s="38"/>
+      <c r="D113" s="26"/>
       <c r="E113" s="11" t="s">
         <v>13</v>
       </c>
@@ -24999,10 +24999,10 @@
       <c r="B114" s="2">
         <v>26</v>
       </c>
-      <c r="C114" s="38">
+      <c r="C114" s="26">
         <v>33</v>
       </c>
-      <c r="D114" s="38"/>
+      <c r="D114" s="26"/>
       <c r="E114" s="11" t="s">
         <v>13</v>
       </c>
@@ -25020,10 +25020,10 @@
       <c r="B115" s="2">
         <v>27</v>
       </c>
-      <c r="C115" s="38">
+      <c r="C115" s="26">
         <v>33</v>
       </c>
-      <c r="D115" s="38"/>
+      <c r="D115" s="26"/>
       <c r="E115" s="11" t="s">
         <v>13</v>
       </c>
@@ -25041,10 +25041,10 @@
       <c r="B116" s="2">
         <v>28</v>
       </c>
-      <c r="C116" s="38">
+      <c r="C116" s="26">
         <v>33</v>
       </c>
-      <c r="D116" s="38"/>
+      <c r="D116" s="26"/>
       <c r="E116" s="11" t="s">
         <v>13</v>
       </c>
@@ -25062,10 +25062,10 @@
       <c r="B117" s="2">
         <v>29</v>
       </c>
-      <c r="C117" s="38">
+      <c r="C117" s="26">
         <v>33</v>
       </c>
-      <c r="D117" s="38"/>
+      <c r="D117" s="26"/>
       <c r="E117" s="11" t="s">
         <v>13</v>
       </c>
@@ -25083,10 +25083,10 @@
       <c r="B118" s="2">
         <v>30</v>
       </c>
-      <c r="C118" s="38">
+      <c r="C118" s="26">
         <v>33</v>
       </c>
-      <c r="D118" s="38"/>
+      <c r="D118" s="26"/>
       <c r="E118" s="11" t="s">
         <v>13</v>
       </c>
@@ -25104,10 +25104,10 @@
       <c r="B119" s="2">
         <v>31</v>
       </c>
-      <c r="C119" s="38">
+      <c r="C119" s="26">
         <v>33</v>
       </c>
-      <c r="D119" s="38"/>
+      <c r="D119" s="26"/>
       <c r="E119" s="11" t="s">
         <v>13</v>
       </c>
@@ -25125,10 +25125,10 @@
       <c r="B120" s="2">
         <v>32</v>
       </c>
-      <c r="C120" s="38">
+      <c r="C120" s="26">
         <v>33</v>
       </c>
-      <c r="D120" s="38"/>
+      <c r="D120" s="26"/>
       <c r="E120" s="11" t="s">
         <v>13</v>
       </c>
@@ -25146,10 +25146,10 @@
       <c r="B121" s="2">
         <v>33</v>
       </c>
-      <c r="C121" s="38">
+      <c r="C121" s="26">
         <v>33</v>
       </c>
-      <c r="D121" s="38"/>
+      <c r="D121" s="26"/>
       <c r="E121" s="11" t="s">
         <v>13</v>
       </c>
@@ -25165,15 +25165,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="J41:L43"/>
+    <mergeCell ref="J45:L48"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="J41:L43"/>
-    <mergeCell ref="J45:L48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25184,15 +25184,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F120B635-0F56-4E47-9DDC-CD73467C8228}">
   <dimension ref="B1:P121"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y65" sqref="Y65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="0.1796875" style="32" customWidth="1"/>
+    <col min="3" max="4" width="0.1796875" style="20" customWidth="1"/>
     <col min="5" max="5" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="88.54296875" style="1" bestFit="1" customWidth="1"/>
@@ -25204,29 +25204,29 @@
   <sheetData>
     <row r="1" spans="2:11" ht="7" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="I2" s="21" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="I2" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="I3" s="9" t="s">
         <v>124</v>
       </c>
@@ -25241,8 +25241,8 @@
       <c r="B4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
@@ -25266,10 +25266,10 @@
       <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="24">
         <v>9</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="24">
         <f>B5/C5</f>
         <v>0.1111111111111111</v>
       </c>
@@ -25298,10 +25298,10 @@
       <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="24">
         <v>9</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="24">
         <f t="shared" ref="D6:D13" si="0">B6/C6</f>
         <v>0.22222222222222221</v>
       </c>
@@ -25330,10 +25330,10 @@
       <c r="B7" s="12">
         <v>3</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="24">
         <v>9</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="24">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
@@ -25362,10 +25362,10 @@
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="25">
         <v>9</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="27">
         <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
@@ -25394,10 +25394,10 @@
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="25">
         <v>9</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="27">
         <f t="shared" si="0"/>
         <v>0.55555555555555558</v>
       </c>
@@ -25426,10 +25426,10 @@
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="25">
         <v>9</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="27">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
@@ -25458,10 +25458,10 @@
       <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="25">
         <v>9</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="27">
         <f t="shared" si="0"/>
         <v>0.77777777777777779</v>
       </c>
@@ -25490,10 +25490,10 @@
       <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="25">
         <v>9</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="27">
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
@@ -25522,10 +25522,10 @@
       <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="25">
         <v>9</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -25552,8 +25552,8 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="I14" s="10">
         <v>10</v>
       </c>
@@ -25567,14 +25567,14 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
       <c r="I15" s="10">
         <v>11</v>
       </c>
@@ -25591,8 +25591,8 @@
       <c r="B16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="8" t="s">
         <v>1</v>
       </c>
@@ -25618,10 +25618,10 @@
       <c r="B17" s="12">
         <v>1</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="24">
         <v>15</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="24">
         <f>B17/C17</f>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -25650,10 +25650,10 @@
       <c r="B18" s="12">
         <v>2</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="24">
         <v>15</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="24">
         <f t="shared" ref="D18:D31" si="3">B18/C18</f>
         <v>0.13333333333333333</v>
       </c>
@@ -25682,10 +25682,10 @@
       <c r="B19" s="12">
         <v>3</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="24">
         <v>15</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="24">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
@@ -25714,10 +25714,10 @@
       <c r="B20" s="12">
         <v>4</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="24">
         <v>15</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="24">
         <f t="shared" si="3"/>
         <v>0.26666666666666666</v>
       </c>
@@ -25746,10 +25746,10 @@
       <c r="B21" s="12">
         <v>5</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="24">
         <v>15</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="24">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
@@ -25778,10 +25778,10 @@
       <c r="B22" s="12">
         <v>6</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="24">
         <v>15</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="24">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
@@ -25810,10 +25810,10 @@
       <c r="B23" s="3">
         <v>7</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="25">
         <v>15</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="27">
         <f t="shared" si="3"/>
         <v>0.46666666666666667</v>
       </c>
@@ -25842,10 +25842,10 @@
       <c r="B24" s="3">
         <v>8</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="25">
         <v>15</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="27">
         <f t="shared" si="3"/>
         <v>0.53333333333333333</v>
       </c>
@@ -25874,10 +25874,10 @@
       <c r="B25" s="3">
         <v>9</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="25">
         <v>15</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="27">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
@@ -25906,10 +25906,10 @@
       <c r="B26" s="3">
         <v>10</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="25">
         <v>15</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="27">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
@@ -25938,10 +25938,10 @@
       <c r="B27" s="3">
         <v>11</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="25">
         <v>15</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="27">
         <f t="shared" si="3"/>
         <v>0.73333333333333328</v>
       </c>
@@ -25970,10 +25970,10 @@
       <c r="B28" s="3">
         <v>12</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="25">
         <v>15</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="27">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
@@ -26002,10 +26002,10 @@
       <c r="B29" s="3">
         <v>13</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="25">
         <v>15</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="27">
         <f t="shared" si="3"/>
         <v>0.8666666666666667</v>
       </c>
@@ -26034,10 +26034,10 @@
       <c r="B30" s="3">
         <v>14</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="25">
         <v>15</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="27">
         <f t="shared" si="3"/>
         <v>0.93333333333333335</v>
       </c>
@@ -26066,10 +26066,10 @@
       <c r="B31" s="3">
         <v>15</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="25">
         <v>15</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="27">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -26096,8 +26096,8 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="I32" s="10">
         <v>28</v>
       </c>
@@ -26111,14 +26111,14 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
       <c r="I33" s="10">
         <v>29</v>
       </c>
@@ -26135,8 +26135,8 @@
       <c r="B34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="8" t="s">
         <v>1</v>
       </c>
@@ -26162,10 +26162,10 @@
       <c r="B35" s="12">
         <v>1</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="24">
         <v>21</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="24">
         <f>B35/C35</f>
         <v>4.7619047619047616E-2</v>
       </c>
@@ -26194,10 +26194,10 @@
       <c r="B36" s="12">
         <v>2</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="24">
         <v>21</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="24">
         <f t="shared" ref="D36:D55" si="4">B36/C36</f>
         <v>9.5238095238095233E-2</v>
       </c>
@@ -26226,10 +26226,10 @@
       <c r="B37" s="12">
         <v>3</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="24">
         <v>21</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="24">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
@@ -26258,10 +26258,10 @@
       <c r="B38" s="12">
         <v>4</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="24">
         <v>21</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="24">
         <f t="shared" si="4"/>
         <v>0.19047619047619047</v>
       </c>
@@ -26290,10 +26290,10 @@
       <c r="B39" s="12">
         <v>5</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="24">
         <v>21</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="24">
         <f t="shared" si="4"/>
         <v>0.23809523809523808</v>
       </c>
@@ -26322,10 +26322,10 @@
       <c r="B40" s="12">
         <v>6</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="24">
         <v>21</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="24">
         <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
@@ -26343,10 +26343,10 @@
       <c r="B41" s="12">
         <v>7</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="24">
         <v>21</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="24">
         <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
@@ -26359,20 +26359,20 @@
       <c r="G41" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="21" t="s">
+      <c r="I41" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="23"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="31"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <v>8</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="24">
         <v>21</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="24">
         <f t="shared" si="4"/>
         <v>0.38095238095238093</v>
       </c>
@@ -26399,10 +26399,10 @@
       <c r="B43" s="12">
         <v>9</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="24">
         <v>21</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="24">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
@@ -26415,14 +26415,14 @@
       <c r="G43" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="30">
+      <c r="I43" s="18">
         <v>1</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="18">
         <f>(FLOOR(I43*100/2,1) +1)/100</f>
         <v>0.51</v>
       </c>
-      <c r="K43" s="30">
+      <c r="K43" s="18">
         <f>(FLOOR(I43*100/3*2,1) +1)/100</f>
         <v>0.67</v>
       </c>
@@ -26431,10 +26431,10 @@
       <c r="B44" s="3">
         <v>10</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="25">
         <v>21</v>
       </c>
-      <c r="D44" s="39">
+      <c r="D44" s="27">
         <f t="shared" si="4"/>
         <v>0.47619047619047616</v>
       </c>
@@ -26447,7 +26447,7 @@
       <c r="G44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I44" s="31">
+      <c r="I44" s="19">
         <v>960</v>
       </c>
     </row>
@@ -26455,10 +26455,10 @@
       <c r="B45" s="3">
         <v>11</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="25">
         <v>21</v>
       </c>
-      <c r="D45" s="39">
+      <c r="D45" s="27">
         <f t="shared" si="4"/>
         <v>0.52380952380952384</v>
       </c>
@@ -26471,7 +26471,7 @@
       <c r="G45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="31">
+      <c r="I45" s="19">
         <v>0</v>
       </c>
     </row>
@@ -26479,10 +26479,10 @@
       <c r="B46" s="3">
         <v>12</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="25">
         <v>21</v>
       </c>
-      <c r="D46" s="39">
+      <c r="D46" s="27">
         <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
       </c>
@@ -26495,20 +26495,20 @@
       <c r="G46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I46" s="28" t="s">
+      <c r="I46" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>13</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="25">
         <v>21</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="27">
         <f t="shared" si="4"/>
         <v>0.61904761904761907</v>
       </c>
@@ -26521,18 +26521,18 @@
       <c r="G47" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>14</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="25">
         <v>21</v>
       </c>
-      <c r="D48" s="39">
+      <c r="D48" s="27">
         <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
@@ -26545,18 +26545,18 @@
       <c r="G48" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>15</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="25">
         <v>21</v>
       </c>
-      <c r="D49" s="39">
+      <c r="D49" s="27">
         <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
@@ -26574,10 +26574,10 @@
       <c r="B50" s="3">
         <v>16</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="25">
         <v>21</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="27">
         <f t="shared" si="4"/>
         <v>0.76190476190476186</v>
       </c>
@@ -26595,10 +26595,10 @@
       <c r="B51" s="3">
         <v>17</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="25">
         <v>21</v>
       </c>
-      <c r="D51" s="39">
+      <c r="D51" s="27">
         <f t="shared" si="4"/>
         <v>0.80952380952380953</v>
       </c>
@@ -26616,10 +26616,10 @@
       <c r="B52" s="3">
         <v>18</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="25">
         <v>21</v>
       </c>
-      <c r="D52" s="39">
+      <c r="D52" s="27">
         <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
@@ -26637,10 +26637,10 @@
       <c r="B53" s="3">
         <v>19</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="25">
         <v>21</v>
       </c>
-      <c r="D53" s="39">
+      <c r="D53" s="27">
         <f t="shared" si="4"/>
         <v>0.90476190476190477</v>
       </c>
@@ -26658,10 +26658,10 @@
       <c r="B54" s="3">
         <v>20</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="25">
         <v>21</v>
       </c>
-      <c r="D54" s="39">
+      <c r="D54" s="27">
         <f t="shared" si="4"/>
         <v>0.95238095238095233</v>
       </c>
@@ -26679,10 +26679,10 @@
       <c r="B55" s="3">
         <v>21</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="25">
         <v>21</v>
       </c>
-      <c r="D55" s="39">
+      <c r="D55" s="27">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -26697,21 +26697,21 @@
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
       <c r="E58" s="8" t="s">
         <v>1</v>
       </c>
@@ -26726,10 +26726,10 @@
       <c r="B59" s="12">
         <v>1</v>
       </c>
-      <c r="C59" s="36">
+      <c r="C59" s="24">
         <v>27</v>
       </c>
-      <c r="D59" s="36">
+      <c r="D59" s="24">
         <f>B59/C59</f>
         <v>3.7037037037037035E-2</v>
       </c>
@@ -26747,10 +26747,10 @@
       <c r="B60" s="12">
         <v>2</v>
       </c>
-      <c r="C60" s="36">
+      <c r="C60" s="24">
         <v>27</v>
       </c>
-      <c r="D60" s="36">
+      <c r="D60" s="24">
         <f t="shared" ref="D60:D85" si="9">B60/C60</f>
         <v>7.407407407407407E-2</v>
       </c>
@@ -26768,10 +26768,10 @@
       <c r="B61" s="12">
         <v>3</v>
       </c>
-      <c r="C61" s="36">
+      <c r="C61" s="24">
         <v>27</v>
       </c>
-      <c r="D61" s="36">
+      <c r="D61" s="24">
         <f t="shared" si="9"/>
         <v>0.1111111111111111</v>
       </c>
@@ -26789,10 +26789,10 @@
       <c r="B62" s="12">
         <v>4</v>
       </c>
-      <c r="C62" s="36">
+      <c r="C62" s="24">
         <v>27</v>
       </c>
-      <c r="D62" s="36">
+      <c r="D62" s="24">
         <f t="shared" si="9"/>
         <v>0.14814814814814814</v>
       </c>
@@ -26810,10 +26810,10 @@
       <c r="B63" s="12">
         <v>5</v>
       </c>
-      <c r="C63" s="36">
+      <c r="C63" s="24">
         <v>27</v>
       </c>
-      <c r="D63" s="36">
+      <c r="D63" s="24">
         <f t="shared" si="9"/>
         <v>0.18518518518518517</v>
       </c>
@@ -26831,10 +26831,10 @@
       <c r="B64" s="12">
         <v>6</v>
       </c>
-      <c r="C64" s="36">
+      <c r="C64" s="24">
         <v>27</v>
       </c>
-      <c r="D64" s="36">
+      <c r="D64" s="24">
         <f t="shared" si="9"/>
         <v>0.22222222222222221</v>
       </c>
@@ -26852,10 +26852,10 @@
       <c r="B65" s="12">
         <v>7</v>
       </c>
-      <c r="C65" s="36">
+      <c r="C65" s="24">
         <v>27</v>
       </c>
-      <c r="D65" s="36">
+      <c r="D65" s="24">
         <f t="shared" si="9"/>
         <v>0.25925925925925924</v>
       </c>
@@ -26873,10 +26873,10 @@
       <c r="B66" s="12">
         <v>8</v>
       </c>
-      <c r="C66" s="36">
+      <c r="C66" s="24">
         <v>27</v>
       </c>
-      <c r="D66" s="36">
+      <c r="D66" s="24">
         <f t="shared" si="9"/>
         <v>0.29629629629629628</v>
       </c>
@@ -26894,10 +26894,10 @@
       <c r="B67" s="12">
         <v>9</v>
       </c>
-      <c r="C67" s="36">
+      <c r="C67" s="24">
         <v>27</v>
       </c>
-      <c r="D67" s="36">
+      <c r="D67" s="24">
         <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
@@ -26915,10 +26915,10 @@
       <c r="B68" s="12">
         <v>10</v>
       </c>
-      <c r="C68" s="36">
+      <c r="C68" s="24">
         <v>27</v>
       </c>
-      <c r="D68" s="36">
+      <c r="D68" s="24">
         <f t="shared" si="9"/>
         <v>0.37037037037037035</v>
       </c>
@@ -26936,10 +26936,10 @@
       <c r="B69" s="12">
         <v>11</v>
       </c>
-      <c r="C69" s="36">
+      <c r="C69" s="24">
         <v>27</v>
       </c>
-      <c r="D69" s="36">
+      <c r="D69" s="24">
         <f t="shared" si="9"/>
         <v>0.40740740740740738</v>
       </c>
@@ -26957,10 +26957,10 @@
       <c r="B70" s="12">
         <v>12</v>
       </c>
-      <c r="C70" s="36">
+      <c r="C70" s="24">
         <v>27</v>
       </c>
-      <c r="D70" s="36">
+      <c r="D70" s="24">
         <f t="shared" si="9"/>
         <v>0.44444444444444442</v>
       </c>
@@ -26978,10 +26978,10 @@
       <c r="B71" s="3">
         <v>13</v>
       </c>
-      <c r="C71" s="37">
+      <c r="C71" s="25">
         <v>27</v>
       </c>
-      <c r="D71" s="39">
+      <c r="D71" s="27">
         <f t="shared" si="9"/>
         <v>0.48148148148148145</v>
       </c>
@@ -26999,10 +26999,10 @@
       <c r="B72" s="3">
         <v>14</v>
       </c>
-      <c r="C72" s="37">
+      <c r="C72" s="25">
         <v>27</v>
       </c>
-      <c r="D72" s="39">
+      <c r="D72" s="27">
         <f t="shared" si="9"/>
         <v>0.51851851851851849</v>
       </c>
@@ -27020,10 +27020,10 @@
       <c r="B73" s="3">
         <v>15</v>
       </c>
-      <c r="C73" s="37">
+      <c r="C73" s="25">
         <v>27</v>
       </c>
-      <c r="D73" s="39">
+      <c r="D73" s="27">
         <f t="shared" si="9"/>
         <v>0.55555555555555558</v>
       </c>
@@ -27041,10 +27041,10 @@
       <c r="B74" s="3">
         <v>16</v>
       </c>
-      <c r="C74" s="37">
+      <c r="C74" s="25">
         <v>27</v>
       </c>
-      <c r="D74" s="39">
+      <c r="D74" s="27">
         <f t="shared" si="9"/>
         <v>0.59259259259259256</v>
       </c>
@@ -27062,10 +27062,10 @@
       <c r="B75" s="3">
         <v>17</v>
       </c>
-      <c r="C75" s="37">
+      <c r="C75" s="25">
         <v>27</v>
       </c>
-      <c r="D75" s="39">
+      <c r="D75" s="27">
         <f t="shared" si="9"/>
         <v>0.62962962962962965</v>
       </c>
@@ -27083,10 +27083,10 @@
       <c r="B76" s="3">
         <v>18</v>
       </c>
-      <c r="C76" s="37">
+      <c r="C76" s="25">
         <v>27</v>
       </c>
-      <c r="D76" s="39">
+      <c r="D76" s="27">
         <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
@@ -27104,10 +27104,10 @@
       <c r="B77" s="3">
         <v>19</v>
       </c>
-      <c r="C77" s="37">
+      <c r="C77" s="25">
         <v>27</v>
       </c>
-      <c r="D77" s="39">
+      <c r="D77" s="27">
         <f t="shared" si="9"/>
         <v>0.70370370370370372</v>
       </c>
@@ -27125,10 +27125,10 @@
       <c r="B78" s="3">
         <v>20</v>
       </c>
-      <c r="C78" s="37">
+      <c r="C78" s="25">
         <v>27</v>
       </c>
-      <c r="D78" s="39">
+      <c r="D78" s="27">
         <f t="shared" si="9"/>
         <v>0.7407407407407407</v>
       </c>
@@ -27146,10 +27146,10 @@
       <c r="B79" s="3">
         <v>21</v>
       </c>
-      <c r="C79" s="37">
+      <c r="C79" s="25">
         <v>27</v>
       </c>
-      <c r="D79" s="39">
+      <c r="D79" s="27">
         <f t="shared" si="9"/>
         <v>0.77777777777777779</v>
       </c>
@@ -27167,10 +27167,10 @@
       <c r="B80" s="3">
         <v>22</v>
       </c>
-      <c r="C80" s="37">
+      <c r="C80" s="25">
         <v>27</v>
       </c>
-      <c r="D80" s="39">
+      <c r="D80" s="27">
         <f t="shared" si="9"/>
         <v>0.81481481481481477</v>
       </c>
@@ -27188,10 +27188,10 @@
       <c r="B81" s="3">
         <v>23</v>
       </c>
-      <c r="C81" s="37">
+      <c r="C81" s="25">
         <v>27</v>
       </c>
-      <c r="D81" s="39">
+      <c r="D81" s="27">
         <f t="shared" si="9"/>
         <v>0.85185185185185186</v>
       </c>
@@ -27209,10 +27209,10 @@
       <c r="B82" s="3">
         <v>24</v>
       </c>
-      <c r="C82" s="37">
+      <c r="C82" s="25">
         <v>27</v>
       </c>
-      <c r="D82" s="39">
+      <c r="D82" s="27">
         <f t="shared" si="9"/>
         <v>0.88888888888888884</v>
       </c>
@@ -27230,10 +27230,10 @@
       <c r="B83" s="3">
         <v>25</v>
       </c>
-      <c r="C83" s="37">
+      <c r="C83" s="25">
         <v>27</v>
       </c>
-      <c r="D83" s="39">
+      <c r="D83" s="27">
         <f t="shared" si="9"/>
         <v>0.92592592592592593</v>
       </c>
@@ -27251,10 +27251,10 @@
       <c r="B84" s="3">
         <v>26</v>
       </c>
-      <c r="C84" s="37">
+      <c r="C84" s="25">
         <v>27</v>
       </c>
-      <c r="D84" s="39">
+      <c r="D84" s="27">
         <f t="shared" si="9"/>
         <v>0.96296296296296291</v>
       </c>
@@ -27272,10 +27272,10 @@
       <c r="B85" s="3">
         <v>27</v>
       </c>
-      <c r="C85" s="37">
+      <c r="C85" s="25">
         <v>27</v>
       </c>
-      <c r="D85" s="39">
+      <c r="D85" s="27">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -27290,21 +27290,21 @@
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B88" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
       <c r="E88" s="8" t="s">
         <v>1</v>
       </c>
@@ -27319,10 +27319,10 @@
       <c r="B89" s="12">
         <v>1</v>
       </c>
-      <c r="C89" s="36">
+      <c r="C89" s="24">
         <v>33</v>
       </c>
-      <c r="D89" s="36">
+      <c r="D89" s="24">
         <f>B89/C89</f>
         <v>3.0303030303030304E-2</v>
       </c>
@@ -27340,10 +27340,10 @@
       <c r="B90" s="12">
         <v>2</v>
       </c>
-      <c r="C90" s="36">
+      <c r="C90" s="24">
         <v>33</v>
       </c>
-      <c r="D90" s="36">
+      <c r="D90" s="24">
         <f t="shared" ref="D90:D121" si="10">B90/C90</f>
         <v>6.0606060606060608E-2</v>
       </c>
@@ -27361,10 +27361,10 @@
       <c r="B91" s="12">
         <v>3</v>
       </c>
-      <c r="C91" s="36">
+      <c r="C91" s="24">
         <v>33</v>
       </c>
-      <c r="D91" s="36">
+      <c r="D91" s="24">
         <f t="shared" si="10"/>
         <v>9.0909090909090912E-2</v>
       </c>
@@ -27382,10 +27382,10 @@
       <c r="B92" s="12">
         <v>4</v>
       </c>
-      <c r="C92" s="36">
+      <c r="C92" s="24">
         <v>33</v>
       </c>
-      <c r="D92" s="36">
+      <c r="D92" s="24">
         <f t="shared" si="10"/>
         <v>0.12121212121212122</v>
       </c>
@@ -27403,10 +27403,10 @@
       <c r="B93" s="12">
         <v>5</v>
       </c>
-      <c r="C93" s="36">
+      <c r="C93" s="24">
         <v>33</v>
       </c>
-      <c r="D93" s="36">
+      <c r="D93" s="24">
         <f t="shared" si="10"/>
         <v>0.15151515151515152</v>
       </c>
@@ -27424,10 +27424,10 @@
       <c r="B94" s="12">
         <v>6</v>
       </c>
-      <c r="C94" s="36">
+      <c r="C94" s="24">
         <v>33</v>
       </c>
-      <c r="D94" s="36">
+      <c r="D94" s="24">
         <f t="shared" si="10"/>
         <v>0.18181818181818182</v>
       </c>
@@ -27445,10 +27445,10 @@
       <c r="B95" s="12">
         <v>7</v>
       </c>
-      <c r="C95" s="36">
+      <c r="C95" s="24">
         <v>33</v>
       </c>
-      <c r="D95" s="36">
+      <c r="D95" s="24">
         <f t="shared" si="10"/>
         <v>0.21212121212121213</v>
       </c>
@@ -27466,10 +27466,10 @@
       <c r="B96" s="12">
         <v>8</v>
       </c>
-      <c r="C96" s="36">
+      <c r="C96" s="24">
         <v>33</v>
       </c>
-      <c r="D96" s="36">
+      <c r="D96" s="24">
         <f t="shared" si="10"/>
         <v>0.24242424242424243</v>
       </c>
@@ -27487,10 +27487,10 @@
       <c r="B97" s="12">
         <v>9</v>
       </c>
-      <c r="C97" s="36">
+      <c r="C97" s="24">
         <v>33</v>
       </c>
-      <c r="D97" s="36">
+      <c r="D97" s="24">
         <f t="shared" si="10"/>
         <v>0.27272727272727271</v>
       </c>
@@ -27508,10 +27508,10 @@
       <c r="B98" s="12">
         <v>10</v>
       </c>
-      <c r="C98" s="36">
+      <c r="C98" s="24">
         <v>33</v>
       </c>
-      <c r="D98" s="36">
+      <c r="D98" s="24">
         <f t="shared" si="10"/>
         <v>0.30303030303030304</v>
       </c>
@@ -27529,10 +27529,10 @@
       <c r="B99" s="12">
         <v>11</v>
       </c>
-      <c r="C99" s="36">
+      <c r="C99" s="24">
         <v>33</v>
       </c>
-      <c r="D99" s="36">
+      <c r="D99" s="24">
         <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
@@ -27550,10 +27550,10 @@
       <c r="B100" s="12">
         <v>12</v>
       </c>
-      <c r="C100" s="36">
+      <c r="C100" s="24">
         <v>33</v>
       </c>
-      <c r="D100" s="36">
+      <c r="D100" s="24">
         <f t="shared" si="10"/>
         <v>0.36363636363636365</v>
       </c>
@@ -27571,10 +27571,10 @@
       <c r="B101" s="12">
         <v>13</v>
       </c>
-      <c r="C101" s="36">
+      <c r="C101" s="24">
         <v>33</v>
       </c>
-      <c r="D101" s="36">
+      <c r="D101" s="24">
         <f t="shared" si="10"/>
         <v>0.39393939393939392</v>
       </c>
@@ -27592,10 +27592,10 @@
       <c r="B102" s="12">
         <v>14</v>
       </c>
-      <c r="C102" s="36">
+      <c r="C102" s="24">
         <v>33</v>
       </c>
-      <c r="D102" s="36">
+      <c r="D102" s="24">
         <f t="shared" si="10"/>
         <v>0.42424242424242425</v>
       </c>
@@ -27613,10 +27613,10 @@
       <c r="B103" s="12">
         <v>15</v>
       </c>
-      <c r="C103" s="36">
+      <c r="C103" s="24">
         <v>33</v>
       </c>
-      <c r="D103" s="36">
+      <c r="D103" s="24">
         <f t="shared" si="10"/>
         <v>0.45454545454545453</v>
       </c>
@@ -27634,10 +27634,10 @@
       <c r="B104" s="3">
         <v>16</v>
       </c>
-      <c r="C104" s="37">
+      <c r="C104" s="25">
         <v>33</v>
       </c>
-      <c r="D104" s="39">
+      <c r="D104" s="27">
         <f t="shared" si="10"/>
         <v>0.48484848484848486</v>
       </c>
@@ -27655,10 +27655,10 @@
       <c r="B105" s="3">
         <v>17</v>
       </c>
-      <c r="C105" s="37">
+      <c r="C105" s="25">
         <v>33</v>
       </c>
-      <c r="D105" s="39">
+      <c r="D105" s="27">
         <f t="shared" si="10"/>
         <v>0.51515151515151514</v>
       </c>
@@ -27676,10 +27676,10 @@
       <c r="B106" s="3">
         <v>18</v>
       </c>
-      <c r="C106" s="37">
+      <c r="C106" s="25">
         <v>33</v>
       </c>
-      <c r="D106" s="39">
+      <c r="D106" s="27">
         <f t="shared" si="10"/>
         <v>0.54545454545454541</v>
       </c>
@@ -27697,10 +27697,10 @@
       <c r="B107" s="3">
         <v>19</v>
       </c>
-      <c r="C107" s="37">
+      <c r="C107" s="25">
         <v>33</v>
       </c>
-      <c r="D107" s="39">
+      <c r="D107" s="27">
         <f t="shared" si="10"/>
         <v>0.5757575757575758</v>
       </c>
@@ -27718,10 +27718,10 @@
       <c r="B108" s="3">
         <v>20</v>
       </c>
-      <c r="C108" s="37">
+      <c r="C108" s="25">
         <v>33</v>
       </c>
-      <c r="D108" s="39">
+      <c r="D108" s="27">
         <f t="shared" si="10"/>
         <v>0.60606060606060608</v>
       </c>
@@ -27739,10 +27739,10 @@
       <c r="B109" s="3">
         <v>21</v>
       </c>
-      <c r="C109" s="37">
+      <c r="C109" s="25">
         <v>33</v>
       </c>
-      <c r="D109" s="39">
+      <c r="D109" s="27">
         <f t="shared" si="10"/>
         <v>0.63636363636363635</v>
       </c>
@@ -27760,10 +27760,10 @@
       <c r="B110" s="3">
         <v>22</v>
       </c>
-      <c r="C110" s="37">
+      <c r="C110" s="25">
         <v>33</v>
       </c>
-      <c r="D110" s="39">
+      <c r="D110" s="27">
         <f t="shared" si="10"/>
         <v>0.66666666666666663</v>
       </c>
@@ -27781,10 +27781,10 @@
       <c r="B111" s="3">
         <v>23</v>
       </c>
-      <c r="C111" s="37">
+      <c r="C111" s="25">
         <v>33</v>
       </c>
-      <c r="D111" s="39">
+      <c r="D111" s="27">
         <f t="shared" si="10"/>
         <v>0.69696969696969702</v>
       </c>
@@ -27802,10 +27802,10 @@
       <c r="B112" s="3">
         <v>24</v>
       </c>
-      <c r="C112" s="37">
+      <c r="C112" s="25">
         <v>33</v>
       </c>
-      <c r="D112" s="39">
+      <c r="D112" s="27">
         <f t="shared" si="10"/>
         <v>0.72727272727272729</v>
       </c>
@@ -27823,10 +27823,10 @@
       <c r="B113" s="3">
         <v>25</v>
       </c>
-      <c r="C113" s="37">
+      <c r="C113" s="25">
         <v>33</v>
       </c>
-      <c r="D113" s="39">
+      <c r="D113" s="27">
         <f t="shared" si="10"/>
         <v>0.75757575757575757</v>
       </c>
@@ -27844,10 +27844,10 @@
       <c r="B114" s="3">
         <v>26</v>
       </c>
-      <c r="C114" s="37">
+      <c r="C114" s="25">
         <v>33</v>
       </c>
-      <c r="D114" s="39">
+      <c r="D114" s="27">
         <f t="shared" si="10"/>
         <v>0.78787878787878785</v>
       </c>
@@ -27865,10 +27865,10 @@
       <c r="B115" s="3">
         <v>27</v>
       </c>
-      <c r="C115" s="37">
+      <c r="C115" s="25">
         <v>33</v>
       </c>
-      <c r="D115" s="39">
+      <c r="D115" s="27">
         <f t="shared" si="10"/>
         <v>0.81818181818181823</v>
       </c>
@@ -27886,10 +27886,10 @@
       <c r="B116" s="3">
         <v>28</v>
       </c>
-      <c r="C116" s="37">
+      <c r="C116" s="25">
         <v>33</v>
       </c>
-      <c r="D116" s="39">
+      <c r="D116" s="27">
         <f t="shared" si="10"/>
         <v>0.84848484848484851</v>
       </c>
@@ -27907,10 +27907,10 @@
       <c r="B117" s="3">
         <v>29</v>
       </c>
-      <c r="C117" s="37">
+      <c r="C117" s="25">
         <v>33</v>
       </c>
-      <c r="D117" s="39">
+      <c r="D117" s="27">
         <f t="shared" si="10"/>
         <v>0.87878787878787878</v>
       </c>
@@ -27928,10 +27928,10 @@
       <c r="B118" s="3">
         <v>30</v>
       </c>
-      <c r="C118" s="37">
+      <c r="C118" s="25">
         <v>33</v>
       </c>
-      <c r="D118" s="39">
+      <c r="D118" s="27">
         <f t="shared" si="10"/>
         <v>0.90909090909090906</v>
       </c>
@@ -27949,10 +27949,10 @@
       <c r="B119" s="3">
         <v>31</v>
       </c>
-      <c r="C119" s="37">
+      <c r="C119" s="25">
         <v>33</v>
       </c>
-      <c r="D119" s="39">
+      <c r="D119" s="27">
         <f t="shared" si="10"/>
         <v>0.93939393939393945</v>
       </c>
@@ -27970,10 +27970,10 @@
       <c r="B120" s="3">
         <v>32</v>
       </c>
-      <c r="C120" s="37">
+      <c r="C120" s="25">
         <v>33</v>
       </c>
-      <c r="D120" s="39">
+      <c r="D120" s="27">
         <f t="shared" si="10"/>
         <v>0.96969696969696972</v>
       </c>
@@ -27991,10 +27991,10 @@
       <c r="B121" s="3">
         <v>33</v>
       </c>
-      <c r="C121" s="37">
+      <c r="C121" s="25">
         <v>33</v>
       </c>
-      <c r="D121" s="39">
+      <c r="D121" s="27">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>

--- a/testing-diva/results/results.xlsx
+++ b/testing-diva/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi\Dropbox\_Schule\_zhaw\21FS\BA\testing-diva\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3675602D-FD34-474A-9206-527A8F4927B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AFF5DC-AAF0-4C28-A194-A1C5BB7A4618}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2860" windowWidth="26570" windowHeight="16510" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23170" yWindow="3510" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -765,7 +765,7 @@
                   <a:srgbClr val="FF3F3F"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>No Ping</a:t>
+              <a:t>Kein Ping</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2444,7 +2444,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Signatures</a:t>
+              <a:t>Signaturen</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4723,7 +4723,7 @@
                   <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Removed</a:t>
+              <a:t>Entfernt</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-CH"/>
@@ -4735,7 +4735,7 @@
                   <a:srgbClr val="FF3F3F"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Not Removed</a:t>
+              <a:t>Nicht Entfernt</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6472,7 +6472,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Signatures</a:t>
+              <a:t>Signaturen</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8235,7 +8235,7 @@
                   <a:srgbClr val="FF3F3F"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>No Ping</a:t>
+              <a:t>Kein Ping</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9921,7 +9921,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Signatures</a:t>
+              <a:t>Signaturen</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -17294,12 +17294,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.85482</cdr:x>
-      <cdr:y>0.84425</cdr:y>
+      <cdr:x>0.82731</cdr:x>
+      <cdr:y>0.84785</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99571</cdr:x>
-      <cdr:y>0.90879</cdr:y>
+      <cdr:x>0.98182</cdr:x>
+      <cdr:y>0.90905</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -17314,8 +17314,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5055539" y="3505465"/>
-          <a:ext cx="833251" cy="267980"/>
+          <a:off x="4892861" y="3520398"/>
+          <a:ext cx="913780" cy="254117"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -17333,7 +17333,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Peers total</a:t>
+            <a:t>Knoten total</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -17444,7 +17444,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Peers up</a:t>
+            <a:t>Knoten ein</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -17457,12 +17457,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.83293</cdr:x>
-      <cdr:y>0.89472</cdr:y>
+      <cdr:x>0.82848</cdr:x>
+      <cdr:y>0.8959</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.97382</cdr:x>
-      <cdr:y>0.95926</cdr:y>
+      <cdr:x>0.99019</cdr:x>
+      <cdr:y>0.95876</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -17477,8 +17477,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4919108" y="3460797"/>
-          <a:ext cx="832069" cy="249621"/>
+          <a:off x="4916021" y="3513792"/>
+          <a:ext cx="959525" cy="246530"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -17496,7 +17496,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Peers total</a:t>
+            <a:t>Knoten total</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -17508,8 +17508,8 @@
       <cdr:y>0.0329</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.21556</cdr:x>
-      <cdr:y>0.09681</cdr:y>
+      <cdr:x>0.23801</cdr:x>
+      <cdr:y>0.094</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -17524,8 +17524,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="25023" y="129042"/>
-          <a:ext cx="1254044" cy="250660"/>
+          <a:off x="25041" y="129036"/>
+          <a:ext cx="1387274" cy="239639"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -17607,7 +17607,27 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Signatures on Ping</a:t>
+            <a:t>Signaturen bei</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ping</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -17618,72 +17638,6 @@
 
 <file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.84604</cdr:x>
-      <cdr:y>0.85233</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.98257</cdr:x>
-      <cdr:y>0.97331</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDACA31-CD38-437C-8269-9DA1EA7F78FF}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4997450" y="3447648"/>
-          <a:ext cx="806450" cy="489352"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100" u="none">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Peers up / </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Peers total</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="de-CH" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.01681</cdr:x>
@@ -17789,8 +17743,135 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Time until Ping</a:t>
+            <a:t>Zeit bis Ping [sec]</a:t>
           </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84291</cdr:x>
+      <cdr:y>0.85732</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.9783</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF3958-D1F3-4DDA-A8DD-2D1F6176B34F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5001649" y="3517153"/>
+          <a:ext cx="932125" cy="496317"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Knoten ein / Knoten total</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="de-CH" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -17802,12 +17883,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.83293</cdr:x>
+      <cdr:x>0.82042</cdr:x>
       <cdr:y>0.89472</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.97382</cdr:x>
-      <cdr:y>0.95926</cdr:y>
+      <cdr:y>0.96054</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -17822,8 +17903,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4919108" y="3460797"/>
-          <a:ext cx="832069" cy="249621"/>
+          <a:off x="4856859" y="3504478"/>
+          <a:ext cx="908111" cy="257793"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -17841,7 +17922,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Peers total</a:t>
+            <a:t>Knoten total</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -17952,7 +18033,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Peers up</a:t>
+            <a:t>Knoten ein</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -17965,59 +18046,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.83293</cdr:x>
-      <cdr:y>0.89472</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.97382</cdr:x>
-      <cdr:y>0.95926</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDACA31-CD38-437C-8269-9DA1EA7F78FF}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4919108" y="3460797"/>
-          <a:ext cx="832069" cy="249621"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Peers total</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
       <cdr:x>0.00801</cdr:x>
       <cdr:y>0.02529</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.21935</cdr:x>
-      <cdr:y>0.08919</cdr:y>
+      <cdr:x>0.22639</cdr:x>
+      <cdr:y>0.08419</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -18032,8 +18066,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="47428" y="99178"/>
-          <a:ext cx="1251114" cy="250641"/>
+          <a:off x="47420" y="99190"/>
+          <a:ext cx="1292804" cy="231010"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -18115,7 +18149,118 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Signatures on Ping</a:t>
+            <a:t>Signaturen bei Ping</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.82127</cdr:x>
+      <cdr:y>0.89676</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97466</cdr:x>
+      <cdr:y>0.96249</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CDB30B-9F8E-44B1-A4EF-99E6AF81B29D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4861858" y="3517152"/>
+          <a:ext cx="908111" cy="257793"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Knoten total</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -18128,12 +18273,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.84604</cdr:x>
-      <cdr:y>0.85233</cdr:y>
+      <cdr:x>0.84255</cdr:x>
+      <cdr:y>0.85779</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.98257</cdr:x>
-      <cdr:y>0.97331</cdr:y>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.97877</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -18148,8 +18293,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4997450" y="3447648"/>
-          <a:ext cx="806450" cy="489352"/>
+          <a:off x="4987829" y="3519074"/>
+          <a:ext cx="932125" cy="496317"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -18167,18 +18312,15 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Peers up / </a:t>
+            <a:t>Knoten ein / Knoten total</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Peers total</a:t>
-          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:endParaRPr lang="de-CH" sz="1100">
@@ -18297,7 +18439,27 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Time until Ping</a:t>
+            <a:t>Zeit bis</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ping [sec]</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -18429,12 +18591,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.85482</cdr:x>
-      <cdr:y>0.84425</cdr:y>
+      <cdr:x>0.82397</cdr:x>
+      <cdr:y>0.84958</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99571</cdr:x>
-      <cdr:y>0.90879</cdr:y>
+      <cdr:x>0.99064</cdr:x>
+      <cdr:y>0.91151</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -18449,8 +18611,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5055539" y="3505465"/>
-          <a:ext cx="833251" cy="267980"/>
+          <a:off x="4855883" y="3572018"/>
+          <a:ext cx="982226" cy="260396"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -18468,7 +18630,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Peers total</a:t>
+            <a:t>Knoten total</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -18579,7 +18741,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Peers up</a:t>
+            <a:t>Knoten ein</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -18592,12 +18754,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.83293</cdr:x>
+      <cdr:x>0.82525</cdr:x>
       <cdr:y>0.89472</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.97382</cdr:x>
-      <cdr:y>0.95926</cdr:y>
+      <cdr:x>0.9827</cdr:x>
+      <cdr:y>0.95714</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -18612,8 +18774,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4919108" y="3460797"/>
-          <a:ext cx="832069" cy="249621"/>
+          <a:off x="4857377" y="3509157"/>
+          <a:ext cx="926785" cy="244814"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -18631,7 +18793,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Peers total</a:t>
+            <a:t>Knoten  total</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -18643,8 +18805,8 @@
       <cdr:y>0.03243</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.26586</cdr:x>
-      <cdr:y>0.09552</cdr:y>
+      <cdr:x>0.30233</cdr:x>
+      <cdr:y>0.09048</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -18659,8 +18821,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="75181" y="123541"/>
-          <a:ext cx="1501008" cy="240383"/>
+          <a:off x="74634" y="127194"/>
+          <a:ext cx="1704860" cy="227660"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -18742,7 +18904,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Signatures on Removal</a:t>
+            <a:t>Signaturen bei Entfernung</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -18755,78 +18917,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.84604</cdr:x>
-      <cdr:y>0.85233</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.98257</cdr:x>
-      <cdr:y>0.97331</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDACA31-CD38-437C-8269-9DA1EA7F78FF}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4997450" y="3447648"/>
-          <a:ext cx="806450" cy="489352"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100" u="none">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Peers up / </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Peers total</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="de-CH" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
       <cdr:x>0.01421</cdr:x>
       <cdr:y>0.02651</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.23915</cdr:x>
-      <cdr:y>0.09265</cdr:y>
+      <cdr:x>0.27371</cdr:x>
+      <cdr:y>0.08805</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -18841,8 +18937,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="84252" y="105648"/>
-          <a:ext cx="1333613" cy="263560"/>
+          <a:off x="83640" y="108758"/>
+          <a:ext cx="1527392" cy="252446"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -18924,8 +19020,135 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Time until Removed</a:t>
+            <a:t>Zeit bis Entfernt [sec]</a:t>
           </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84164</cdr:x>
+      <cdr:y>0.85186</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.97284</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF3958-D1F3-4DDA-A8DD-2D1F6176B34F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4953837" y="3494741"/>
+          <a:ext cx="932125" cy="496317"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" u="none">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Knoten ein / Knoten total</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="de-CH" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -19317,8 +19540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S126"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y64" sqref="Y64"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22305,8 +22528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845EEAD4-736E-4CB3-9295-0285EE9C62F7}">
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView topLeftCell="I37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X51" sqref="X51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25184,8 +25407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F120B635-0F56-4E47-9DDC-CD73467C8228}">
   <dimension ref="B1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y65" sqref="Y65"/>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
